--- a/inside_office/excel/「Excel」1級.xlsx
+++ b/inside_office/excel/「Excel」1級.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\012Yeung\github\openforward\inside_office\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\012Yeung\openforward\inside_office\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43812FD0-79D9-4067-A06A-457BBD7B7C9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FED1722-BCFA-41BE-82C9-FD3BE6EA5EC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1-3" sheetId="2" r:id="rId2"/>
+    <sheet name="1-6" sheetId="3" r:id="rId3"/>
+    <sheet name="1-8" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1-3'!$A$2:$L$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1-6'!$A$2:$M$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1-8'!$A$2:$L$18</definedName>
+    <definedName name="aa">'1-6'!$A$2:$M$18</definedName>
+    <definedName name="bb">'1-8'!$A$2:$L$18</definedName>
+    <definedName name="主張諸手当計算表">'1-3'!$A$2:$L$14</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="135">
   <si>
     <t>得意先別売上一覧表</t>
     <rPh sb="0" eb="2">
@@ -230,6 +241,843 @@
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主張諸手当計算表</t>
+    <rPh sb="0" eb="2">
+      <t>シュチョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テアテ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ケイサンヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出張手当</t>
+    <rPh sb="0" eb="2">
+      <t>シュッチョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テアテ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>契約数</t>
+    <rPh sb="0" eb="3">
+      <t>ケイヤクスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>契約額(万)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均契約額</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>営業手当</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テアテ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>査定</t>
+    <rPh sb="0" eb="2">
+      <t>サテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>奨励金</t>
+    <rPh sb="0" eb="3">
+      <t>ショウレイキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>総支給額</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>シキュウガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>101C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>102B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>103A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>104B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>田島　洋平</t>
+  </si>
+  <si>
+    <t>田島　洋平</t>
+    <rPh sb="0" eb="2">
+      <t>タシマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウヘイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>佐藤　緑子</t>
+  </si>
+  <si>
+    <t>佐藤　緑子</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミドリコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>久保田　光</t>
+  </si>
+  <si>
+    <t>久保田　光</t>
+    <rPh sb="0" eb="3">
+      <t>クボタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>南　さくら</t>
+  </si>
+  <si>
+    <t>南　さくら</t>
+    <rPh sb="0" eb="1">
+      <t>ミナミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>主張諸手当計算表(契約数160未満・奨励金17,000円以上)</t>
+    <rPh sb="0" eb="2">
+      <t>シュチョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テアテ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ケイサンヒョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ショウレイキン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員別集計表</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シュウケイヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>契約数が95以上の営業手当の最大</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テアテ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サイダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均契約額が27万円以下で査定が102以上の件数</t>
+    <rPh sb="8" eb="10">
+      <t>マンエン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>COが102B以外で日数が8日未満の総支給額の平均</t>
+    <rPh sb="7" eb="9">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒスウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>シキュウガク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt;=95</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;=270000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt;=102</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;&gt;102B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入品利益額一覧表</t>
+    <rPh sb="0" eb="3">
+      <t>ユニュウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>イチランヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販ＣＯ</t>
+    <rPh sb="0" eb="1">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売先名</t>
+    <rPh sb="0" eb="4">
+      <t>ハンバイサキメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売価</t>
+    <rPh sb="0" eb="2">
+      <t>バイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売上額</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>増量率</t>
+    <rPh sb="0" eb="3">
+      <t>ゾウリョウリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>増量数</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利益額</t>
+    <rPh sb="0" eb="3">
+      <t>リエキガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>森山商店</t>
+  </si>
+  <si>
+    <t>森山商店</t>
+    <rPh sb="0" eb="2">
+      <t>モリヤマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東海物産</t>
+  </si>
+  <si>
+    <t>東海物産</t>
+    <rPh sb="0" eb="2">
+      <t>トウカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブッサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＳＢ商事</t>
+  </si>
+  <si>
+    <t>ＳＢ商事</t>
+    <rPh sb="2" eb="4">
+      <t>ショウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>富士見屋</t>
+    <rPh sb="0" eb="3">
+      <t>フジミ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品W</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品X</t>
+  </si>
+  <si>
+    <t>商品X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品Y</t>
+  </si>
+  <si>
+    <t>商品Y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品Z</t>
+  </si>
+  <si>
+    <t>商品Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>適用為替</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カワセ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入品利益額一覧表(売上額110万円以上150万円未満)</t>
+    <rPh sb="0" eb="3">
+      <t>ユニュウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>イチランヒョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>エンイジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>マンエン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売先別集計表</t>
+    <rPh sb="0" eb="2">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サキベツ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シュウケイヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売上額が120万円以上で評価がB以外の利益額の最小</t>
+    <rPh sb="7" eb="9">
+      <t>マンエン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>リエキガク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売上数570より多く670より少ない件数</t>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>増量数が30以上または利益額34万円以上の売上額の平均</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>リエキガク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>マンエン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ウリアゲガク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt;=1200000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;&gt;B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt;570</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;670</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt;=30</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt;=340000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取引先別販売一覧表</t>
+    <rPh sb="0" eb="4">
+      <t>トリヒキサキベツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>イチランヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取ＣＯ</t>
+    <rPh sb="0" eb="1">
+      <t>トリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取引先名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売数</t>
+    <rPh sb="0" eb="3">
+      <t>ハンバイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利益率</t>
+    <rPh sb="0" eb="3">
+      <t>リエキリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売額</t>
+    <rPh sb="0" eb="3">
+      <t>ハンバイガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポイント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>判定</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東海ストア</t>
+  </si>
+  <si>
+    <t>東海ストア</t>
+    <rPh sb="0" eb="2">
+      <t>トウカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＢＩＧ商事</t>
+  </si>
+  <si>
+    <t>ＢＩＧ商事</t>
+    <rPh sb="3" eb="5">
+      <t>ショウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マルハ商店</t>
+  </si>
+  <si>
+    <t>マルハ商店</t>
+    <rPh sb="3" eb="5">
+      <t>ショウテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>三共百貨店</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ヒャッカテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>J商品</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K商品</t>
+  </si>
+  <si>
+    <t>K商品</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>L商品</t>
+  </si>
+  <si>
+    <t>L商品</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M商品</t>
+  </si>
+  <si>
+    <t>M商品</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>良好</t>
+  </si>
+  <si>
+    <t>取引先別販売一覧表（三共百貨店以外・販売額130万円未満）</t>
+    <rPh sb="0" eb="4">
+      <t>トリヒキサキベツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>イチランヒョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ハンバイガク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>マンエン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取引先別集計表</t>
+    <rPh sb="0" eb="3">
+      <t>トリヒキサキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シュウケイヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名がK商品以外の利益額の合計</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>リエキガク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売数が510未満で売価が3,000円未満の販売額の最大</t>
+    <rPh sb="0" eb="2">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バイカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ハンバイガク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サイダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利益率が24％超でポイントが20,000以上の件数</t>
+    <rPh sb="0" eb="3">
+      <t>リエキリツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="16" eb="22">
+      <t>000イジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;&gt;K商品</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;510</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;3000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt;24%</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt;=20000</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -238,7 +1086,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -271,7 +1119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -414,6 +1262,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -424,16 +1281,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -453,6 +1310,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
@@ -470,6 +1356,2957 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>社員別の集計グラフ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1-3'!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>出張手当</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1-3'!$A$30:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>田島　洋平</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>佐藤　緑子</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>久保田　光</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>南　さくら</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1-3'!$B$30:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>41580</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45570</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-31BD-455F-B08B-87C3EDA7EF4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1-3'!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>営業手当</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1-3'!$A$30:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>田島　洋平</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>佐藤　緑子</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>久保田　光</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>南　さくら</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1-3'!$C$30:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>158400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187550</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200690</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195830</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-31BD-455F-B08B-87C3EDA7EF4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1-3'!$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>奨励金</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1-3'!$A$30:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>田島　洋平</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>佐藤　緑子</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>久保田　光</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>南　さくら</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1-3'!$D$30:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>53460</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55410</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54510</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-31BD-455F-B08B-87C3EDA7EF4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="181554319"/>
+        <c:axId val="388316703"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="181554319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388316703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="388316703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="181554319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>利益額の構成比</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1-6'!$D$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>利益額</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1-6'!$A$34:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>森山商店</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>東海物産</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ＳＢ商事</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>富士見屋</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1-6'!$D$34:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1122251</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1280197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1323971</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1421898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C2D3-4873-8A9D-468DC21A2651}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>取引先別の利益額</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1-8'!$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>利益額</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1-8'!$A$35:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>東海ストア</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ＢＩＧ商事</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>マルハ商店</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>三共百貨店</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1-8'!$D$35:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>792099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>671912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>736402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>777985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A721-4839-9C0E-264984092129}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="389457487"/>
+        <c:axId val="388307967"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="389457487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388307967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="388307967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389457487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E940BE-5117-44FD-A10B-5A6B664C9005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFFA0DDA-076A-477E-AE39-B62A8E65AFA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3088E08B-19CA-4F5E-89F2-1D96008F0B70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -737,8 +4574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -761,21 +4598,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="8" t="s">
@@ -1782,4 +5619,4319 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02347C31-8DB1-42EB-B232-BFCB7930AF65}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="19.5" thickBot="1">
+      <c r="A1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="4" t="str">
+        <f>VLOOKUP(A3,$N$3:$O$6,2,0)</f>
+        <v>田島　洋平</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5">
+        <f>VLOOKUP(RIGHT(A3,1),$N$8:$O$10,2,0)*C3</f>
+        <v>11880</v>
+      </c>
+      <c r="E3" s="4">
+        <v>83</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2186</v>
+      </c>
+      <c r="G3" s="5">
+        <f>ROUND(F3*10000/E3,-3)</f>
+        <v>263000</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H14" si="0">ROUND(F3*10000*IF(OR(E3&gt;=110,F3&gt;=2500),0.24%,0.21%),-1)</f>
+        <v>45910</v>
+      </c>
+      <c r="I3" s="4">
+        <f>VLOOKUP(F3,$N$12:$P$13,INT(E3/100)+2,1)</f>
+        <v>90</v>
+      </c>
+      <c r="J3" s="5">
+        <f>ROUNDUP(G3*VLOOKUP(E3,$N$15:$O$17,2,TRUE)*I3/100,-1)</f>
+        <v>15860</v>
+      </c>
+      <c r="K3" s="7">
+        <f>D3+H3+J3</f>
+        <v>73650</v>
+      </c>
+      <c r="L3" s="12" t="str">
+        <f>IF(AND(G3&gt;=239000,I3&gt;=95),"**","*")</f>
+        <v>*</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f>VLOOKUP(A4,$N$3:$O$6,2,0)</f>
+        <v>田島　洋平</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5">
+        <f>VLOOKUP(RIGHT(A4,1),$N$8:$O$10,2,0)*C4</f>
+        <v>13860</v>
+      </c>
+      <c r="E4" s="4">
+        <v>95</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2026</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G14" si="1">ROUND(F4*10000/E4,-3)</f>
+        <v>213000</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="0"/>
+        <v>42550</v>
+      </c>
+      <c r="I4" s="4">
+        <f>VLOOKUP(F4,$N$12:$P$13,INT(E4/100)+2,1)</f>
+        <v>90</v>
+      </c>
+      <c r="J4" s="5">
+        <f>ROUNDUP(G4*VLOOKUP(E4,$N$15:$O$17,2,TRUE)*I4/100,-1)</f>
+        <v>14570</v>
+      </c>
+      <c r="K4" s="7">
+        <f t="shared" ref="K4:K14" si="2">D4+H4+J4</f>
+        <v>70980</v>
+      </c>
+      <c r="L4" s="12" t="str">
+        <f t="shared" ref="L4:L14" si="3">IF(AND(G4&gt;=239000,I4&gt;=95),"**","*")</f>
+        <v>*</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="4" t="str">
+        <f>VLOOKUP(A5,$N$3:$O$6,2,0)</f>
+        <v>田島　洋平</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5">
+        <f>VLOOKUP(RIGHT(A5,1),$N$8:$O$10,2,0)*C5</f>
+        <v>15840</v>
+      </c>
+      <c r="E5" s="4">
+        <v>98</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2914</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
+        <v>297000</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
+        <v>69940</v>
+      </c>
+      <c r="I5" s="4">
+        <f>VLOOKUP(F5,$N$12:$P$13,INT(E5/100)+2,1)</f>
+        <v>102</v>
+      </c>
+      <c r="J5" s="5">
+        <f>ROUNDUP(G5*VLOOKUP(E5,$N$15:$O$17,2,TRUE)*I5/100,-1)</f>
+        <v>23030</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" si="2"/>
+        <v>108810</v>
+      </c>
+      <c r="L5" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>**</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f>VLOOKUP(A6,$N$3:$O$6,2,0)</f>
+        <v>佐藤　緑子</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5">
+        <f>VLOOKUP(RIGHT(A6,1),$N$8:$O$10,2,0)*C6</f>
+        <v>10300</v>
+      </c>
+      <c r="E6" s="4">
+        <v>96</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2631</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>274000</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>63140</v>
+      </c>
+      <c r="I6" s="4">
+        <f>VLOOKUP(F6,$N$12:$P$13,INT(E6/100)+2,1)</f>
+        <v>102</v>
+      </c>
+      <c r="J6" s="5">
+        <f>ROUNDUP(G6*VLOOKUP(E6,$N$15:$O$17,2,TRUE)*I6/100,-1)</f>
+        <v>21250</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="2"/>
+        <v>94690</v>
+      </c>
+      <c r="L6" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>**</v>
+      </c>
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f>VLOOKUP(A7,$N$3:$O$6,2,0)</f>
+        <v>佐藤　緑子</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5">
+        <f>VLOOKUP(RIGHT(A7,1),$N$8:$O$10,2,0)*C7</f>
+        <v>16480</v>
+      </c>
+      <c r="E7" s="4">
+        <v>101</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1805</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>179000</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>37910</v>
+      </c>
+      <c r="I7" s="4">
+        <f>VLOOKUP(F7,$N$12:$P$13,INT(E7/100)+2,1)</f>
+        <v>95</v>
+      </c>
+      <c r="J7" s="5">
+        <f>ROUNDUP(G7*VLOOKUP(E7,$N$15:$O$17,2,TRUE)*I7/100,-1)</f>
+        <v>12930</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="2"/>
+        <v>67320</v>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <f>VLOOKUP(A8,$N$3:$O$6,2,0)</f>
+        <v>佐藤　緑子</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5">
+        <f>VLOOKUP(RIGHT(A8,1),$N$8:$O$10,2,0)*C8</f>
+        <v>18540</v>
+      </c>
+      <c r="E8" s="4">
+        <v>160</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3604</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>225000</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>86500</v>
+      </c>
+      <c r="I8" s="4">
+        <f>VLOOKUP(F8,$N$12:$P$13,INT(E8/100)+2,1)</f>
+        <v>107</v>
+      </c>
+      <c r="J8" s="5">
+        <f>ROUNDUP(G8*VLOOKUP(E8,$N$15:$O$17,2,TRUE)*I8/100,-1)</f>
+        <v>20470</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="2"/>
+        <v>125510</v>
+      </c>
+      <c r="L8" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="4" t="str">
+        <f>VLOOKUP(A9,$N$3:$O$6,2,0)</f>
+        <v>久保田　光</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5">
+        <f>VLOOKUP(RIGHT(A9,1),$N$8:$O$10,2,0)*C9</f>
+        <v>10850</v>
+      </c>
+      <c r="E9" s="4">
+        <v>106</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2537</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>239000</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>60890</v>
+      </c>
+      <c r="I9" s="4">
+        <f>VLOOKUP(F9,$N$12:$P$13,INT(E9/100)+2,1)</f>
+        <v>95</v>
+      </c>
+      <c r="J9" s="5">
+        <f>ROUNDUP(G9*VLOOKUP(E9,$N$15:$O$17,2,TRUE)*I9/100,-1)</f>
+        <v>17260</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="2"/>
+        <v>89000</v>
+      </c>
+      <c r="L9" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>**</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f>VLOOKUP(A10,$N$3:$O$6,2,0)</f>
+        <v>久保田　光</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5">
+        <f>VLOOKUP(RIGHT(A10,1),$N$8:$O$10,2,0)*C10</f>
+        <v>13020</v>
+      </c>
+      <c r="E10" s="4">
+        <v>110</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2227</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
+        <v>202000</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="0"/>
+        <v>53450</v>
+      </c>
+      <c r="I10" s="4">
+        <f>VLOOKUP(F10,$N$12:$P$13,INT(E10/100)+2,1)</f>
+        <v>95</v>
+      </c>
+      <c r="J10" s="5">
+        <f>ROUNDUP(G10*VLOOKUP(E10,$N$15:$O$17,2,TRUE)*I10/100,-1)</f>
+        <v>16320</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="2"/>
+        <v>82790</v>
+      </c>
+      <c r="L10" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <f>VLOOKUP(A11,$N$3:$O$6,2,0)</f>
+        <v>久保田　光</v>
+      </c>
+      <c r="C11" s="4">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5">
+        <f>VLOOKUP(RIGHT(A11,1),$N$8:$O$10,2,0)*C11</f>
+        <v>21700</v>
+      </c>
+      <c r="E11" s="4">
+        <v>150</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3598</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="1"/>
+        <v>240000</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="0"/>
+        <v>86350</v>
+      </c>
+      <c r="I11" s="4">
+        <f>VLOOKUP(F11,$N$12:$P$13,INT(E11/100)+2,1)</f>
+        <v>107</v>
+      </c>
+      <c r="J11" s="5">
+        <f>ROUNDUP(G11*VLOOKUP(E11,$N$15:$O$17,2,TRUE)*I11/100,-1)</f>
+        <v>21830</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="2"/>
+        <v>129880</v>
+      </c>
+      <c r="L11" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>VLOOKUP(A12,$N$3:$O$6,2,0)</f>
+        <v>南　さくら</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5">
+        <f>VLOOKUP(RIGHT(A12,1),$N$8:$O$10,2,0)*C12</f>
+        <v>12360</v>
+      </c>
+      <c r="E12" s="4">
+        <v>97</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2601</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="1"/>
+        <v>268000</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="0"/>
+        <v>62420</v>
+      </c>
+      <c r="I12" s="4">
+        <f>VLOOKUP(F12,$N$12:$P$13,INT(E12/100)+2,1)</f>
+        <v>102</v>
+      </c>
+      <c r="J12" s="5">
+        <f>ROUNDUP(G12*VLOOKUP(E12,$N$15:$O$17,2,TRUE)*I12/100,-1)</f>
+        <v>20780</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="2"/>
+        <v>95560</v>
+      </c>
+      <c r="L12" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>**</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>90</v>
+      </c>
+      <c r="P12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f>VLOOKUP(A13,$N$3:$O$6,2,0)</f>
+        <v>南　さくら</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5">
+        <f>VLOOKUP(RIGHT(A13,1),$N$8:$O$10,2,0)*C13</f>
+        <v>14420</v>
+      </c>
+      <c r="E13" s="4">
+        <v>85</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2307</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
+        <v>271000</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>48450</v>
+      </c>
+      <c r="I13" s="4">
+        <f>VLOOKUP(F13,$N$12:$P$13,INT(E13/100)+2,1)</f>
+        <v>90</v>
+      </c>
+      <c r="J13" s="5">
+        <f>ROUNDUP(G13*VLOOKUP(E13,$N$15:$O$17,2,TRUE)*I13/100,-1)</f>
+        <v>16350</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="2"/>
+        <v>79220</v>
+      </c>
+      <c r="L13" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="N13">
+        <v>2600</v>
+      </c>
+      <c r="O13">
+        <v>102</v>
+      </c>
+      <c r="P13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f>VLOOKUP(A14,$N$3:$O$6,2,0)</f>
+        <v>南　さくら</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5">
+        <f>VLOOKUP(RIGHT(A14,1),$N$8:$O$10,2,0)*C14</f>
+        <v>18540</v>
+      </c>
+      <c r="E14" s="4">
+        <v>185</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3540</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="1"/>
+        <v>191000</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="0"/>
+        <v>84960</v>
+      </c>
+      <c r="I14" s="4">
+        <f>VLOOKUP(F14,$N$12:$P$13,INT(E14/100)+2,1)</f>
+        <v>107</v>
+      </c>
+      <c r="J14" s="5">
+        <f>ROUNDUP(G14*VLOOKUP(E14,$N$15:$O$17,2,TRUE)*I14/100,-1)</f>
+        <v>17380</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="2"/>
+        <v>120880</v>
+      </c>
+      <c r="L14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="11"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="12"/>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="19.5" thickBot="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="20">
+        <f>SUM(D3:D14)</f>
+        <v>177790</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" ref="E16:K16" si="4">SUM(E3:E14)</f>
+        <v>1366</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" si="4"/>
+        <v>31976</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20">
+        <f t="shared" si="4"/>
+        <v>742470</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20">
+        <f t="shared" si="4"/>
+        <v>218030</v>
+      </c>
+      <c r="K16" s="20">
+        <f t="shared" si="4"/>
+        <v>1138290</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="N16">
+        <v>95</v>
+      </c>
+      <c r="O16" s="2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="J17" s="3"/>
+      <c r="K17" s="19"/>
+      <c r="N17">
+        <v>110</v>
+      </c>
+      <c r="O17" s="2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A18" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="4">
+        <v>8</v>
+      </c>
+      <c r="D20" s="5">
+        <v>15840</v>
+      </c>
+      <c r="E20" s="4">
+        <v>98</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2914</v>
+      </c>
+      <c r="G20" s="5">
+        <v>297000</v>
+      </c>
+      <c r="H20" s="5">
+        <v>69940</v>
+      </c>
+      <c r="I20" s="4">
+        <v>102</v>
+      </c>
+      <c r="J20" s="5">
+        <v>23030</v>
+      </c>
+      <c r="K20" s="7">
+        <v>108810</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="4">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5">
+        <v>21700</v>
+      </c>
+      <c r="E21" s="4">
+        <v>150</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3598</v>
+      </c>
+      <c r="G21" s="5">
+        <v>240000</v>
+      </c>
+      <c r="H21" s="5">
+        <v>86350</v>
+      </c>
+      <c r="I21" s="4">
+        <v>107</v>
+      </c>
+      <c r="J21" s="5">
+        <v>21830</v>
+      </c>
+      <c r="K21" s="7">
+        <v>129880</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>10300</v>
+      </c>
+      <c r="E22" s="4">
+        <v>96</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2631</v>
+      </c>
+      <c r="G22" s="5">
+        <v>274000</v>
+      </c>
+      <c r="H22" s="5">
+        <v>63140</v>
+      </c>
+      <c r="I22" s="4">
+        <v>102</v>
+      </c>
+      <c r="J22" s="5">
+        <v>21250</v>
+      </c>
+      <c r="K22" s="7">
+        <v>94690</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="4">
+        <v>6</v>
+      </c>
+      <c r="D23" s="5">
+        <v>12360</v>
+      </c>
+      <c r="E23" s="4">
+        <v>97</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2601</v>
+      </c>
+      <c r="G23" s="5">
+        <v>268000</v>
+      </c>
+      <c r="H23" s="5">
+        <v>62420</v>
+      </c>
+      <c r="I23" s="4">
+        <v>102</v>
+      </c>
+      <c r="J23" s="5">
+        <v>20780</v>
+      </c>
+      <c r="K23" s="7">
+        <v>95560</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5</v>
+      </c>
+      <c r="D24" s="5">
+        <v>10850</v>
+      </c>
+      <c r="E24" s="4">
+        <v>106</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2537</v>
+      </c>
+      <c r="G24" s="5">
+        <v>239000</v>
+      </c>
+      <c r="H24" s="5">
+        <v>60890</v>
+      </c>
+      <c r="I24" s="4">
+        <v>95</v>
+      </c>
+      <c r="J24" s="5">
+        <v>17260</v>
+      </c>
+      <c r="K24" s="7">
+        <v>89000</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="20">
+        <f>SUM(D20:D24)</f>
+        <v>71050</v>
+      </c>
+      <c r="E26" s="20">
+        <f t="shared" ref="E26:K26" si="5">SUM(E20:E24)</f>
+        <v>547</v>
+      </c>
+      <c r="F26" s="20">
+        <f t="shared" si="5"/>
+        <v>14281</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20">
+        <f t="shared" si="5"/>
+        <v>342740</v>
+      </c>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20">
+        <f t="shared" si="5"/>
+        <v>104150</v>
+      </c>
+      <c r="K26" s="20">
+        <f t="shared" si="5"/>
+        <v>517940</v>
+      </c>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="28" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A28" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="5">
+        <f>DSUM(主張諸手当計算表,B$29,$F$29:$F$30)</f>
+        <v>41580</v>
+      </c>
+      <c r="C30" s="5">
+        <f>DSUM(主張諸手当計算表,C$29,$F$29:$F$30)</f>
+        <v>158400</v>
+      </c>
+      <c r="D30" s="23">
+        <f>DSUM(主張諸手当計算表,D$29,$F$29:$F$30)</f>
+        <v>53460</v>
+      </c>
+      <c r="F30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A31" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="5">
+        <f>DSUM(主張諸手当計算表,B$29,$G$29:$G$30)</f>
+        <v>45320</v>
+      </c>
+      <c r="C31" s="5">
+        <f>DSUM(主張諸手当計算表,C$29,$G$29:$G$30)</f>
+        <v>187550</v>
+      </c>
+      <c r="D31" s="23">
+        <f>DSUM(主張諸手当計算表,D$29,$G$29:$G$30)</f>
+        <v>54650</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="5">
+        <f>DSUM(主張諸手当計算表,B$29,$H$29:$H$30)</f>
+        <v>45570</v>
+      </c>
+      <c r="C32" s="5">
+        <f>DSUM(主張諸手当計算表,C$29,$H$29:$H$30)</f>
+        <v>200690</v>
+      </c>
+      <c r="D32" s="23">
+        <f>DSUM(主張諸手当計算表,D$29,$H$29:$H$30)</f>
+        <v>55410</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A33" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="16">
+        <f>DSUM(主張諸手当計算表,B$29,$I$29:$I$30)</f>
+        <v>45320</v>
+      </c>
+      <c r="C33" s="16">
+        <f>DSUM(主張諸手当計算表,C$29,$I$29:$I$30)</f>
+        <v>195830</v>
+      </c>
+      <c r="D33" s="24">
+        <f>DSUM(主張諸手当計算表,D$29,$I$29:$I$30)</f>
+        <v>54510</v>
+      </c>
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="19.5" thickBot="1"/>
+    <row r="35" spans="1:11">
+      <c r="A35" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28">
+        <f>DMAX(主張諸手当計算表,H2,F32:F33)</f>
+        <v>86500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="23">
+        <f>DCOUNTA(主張諸手当計算表,,H32:I33)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A37" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="24">
+        <f>DAVERAGE(主張諸手当計算表,K2,J32:K33)</f>
+        <v>81866.666666666672</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A20:L24">
+    <sortCondition descending="1" ref="J19"/>
+  </sortState>
+  <mergeCells count="6">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A37:E37"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="60" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12656FAF-2576-410B-8C7F-C313BA48FB88}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="19.5" thickBot="1">
+      <c r="A1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="11">
+        <v>101</v>
+      </c>
+      <c r="B3" s="4" t="str">
+        <f>VLOOKUP(A3,$O$3:$P$6,2,0)</f>
+        <v>森山商店</v>
+      </c>
+      <c r="C3" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f>VLOOKUP(C3,$O$8:$Q$11,2,0)</f>
+        <v>商品W</v>
+      </c>
+      <c r="E3" s="4">
+        <v>382</v>
+      </c>
+      <c r="F3" s="5">
+        <f>ROUND(VLOOKUP(C3,$O$8:$Q$11,3,0)*$P$13,-1)</f>
+        <v>1980</v>
+      </c>
+      <c r="G3" s="5">
+        <f>F3*1.4</f>
+        <v>2772</v>
+      </c>
+      <c r="H3" s="5">
+        <f>ROUNDUP(IF(E3&gt;=600,G3*0.93,G3*0.92),0)</f>
+        <v>2551</v>
+      </c>
+      <c r="I3" s="5">
+        <f>H3*E3</f>
+        <v>974482</v>
+      </c>
+      <c r="J3" s="6">
+        <f>VLOOKUP(E3,$O$15:$Q$17,INT(C3/20)+2,1)</f>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="K3" s="5">
+        <f>ROUNDDOWN(E3*J3,0)</f>
+        <v>16</v>
+      </c>
+      <c r="L3" s="5">
+        <f>I3-F3*E3</f>
+        <v>218122</v>
+      </c>
+      <c r="M3" s="12" t="str">
+        <f>IF(AND(E3&gt;=600,I3&gt;=1500000),"A",IF(OR(E3&gt;=600,I3&gt;=1500000),"B","C"))</f>
+        <v>C</v>
+      </c>
+      <c r="O3">
+        <v>101</v>
+      </c>
+      <c r="P3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="11">
+        <v>101</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f t="shared" ref="B4:B18" si="0">VLOOKUP(A4,$O$3:$P$6,2,0)</f>
+        <v>森山商店</v>
+      </c>
+      <c r="C4" s="4">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f t="shared" ref="D4:D18" si="1">VLOOKUP(C4,$O$8:$Q$11,2,0)</f>
+        <v>商品X</v>
+      </c>
+      <c r="E4" s="4">
+        <v>633</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F18" si="2">ROUND(VLOOKUP(C4,$O$8:$Q$11,3,0)*$P$13,-1)</f>
+        <v>2100</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G18" si="3">F4*1.4</f>
+        <v>2940</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H18" si="4">ROUNDUP(IF(E4&gt;=600,G4*0.93,G4*0.92),0)</f>
+        <v>2735</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" ref="I4:I18" si="5">H4*E4</f>
+        <v>1731255</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" ref="J4:J18" si="6">VLOOKUP(E4,$O$15:$Q$17,INT(C4/20)+2,1)</f>
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" ref="K4:K18" si="7">ROUNDDOWN(E4*J4,0)</f>
+        <v>32</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" ref="L4:L18" si="8">I4-F4*E4</f>
+        <v>401955</v>
+      </c>
+      <c r="M4" s="12" t="str">
+        <f t="shared" ref="M4:M18" si="9">IF(AND(E4&gt;=600,I4&gt;=1500000),"A",IF(OR(E4&gt;=600,I4&gt;=1500000),"B","C"))</f>
+        <v>A</v>
+      </c>
+      <c r="O4">
+        <v>102</v>
+      </c>
+      <c r="P4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="11">
+        <v>101</v>
+      </c>
+      <c r="B5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>森山商店</v>
+      </c>
+      <c r="C5" s="4">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>商品Y</v>
+      </c>
+      <c r="E5" s="4">
+        <v>458</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="2"/>
+        <v>1590</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="3"/>
+        <v>2226</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="4"/>
+        <v>2048</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="5"/>
+        <v>937984</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="6"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="8"/>
+        <v>209764</v>
+      </c>
+      <c r="M5" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="O5">
+        <v>103</v>
+      </c>
+      <c r="P5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="11">
+        <v>101</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>森山商店</v>
+      </c>
+      <c r="C6" s="4">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>商品Z</v>
+      </c>
+      <c r="E6" s="4">
+        <v>570</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="2"/>
+        <v>1780</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="3"/>
+        <v>2492</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="4"/>
+        <v>2293</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="5"/>
+        <v>1307010</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="6"/>
+        <v>4.7E-2</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="8"/>
+        <v>292410</v>
+      </c>
+      <c r="M6" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="O6">
+        <v>104</v>
+      </c>
+      <c r="P6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="11">
+        <v>102</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>東海物産</v>
+      </c>
+      <c r="C7" s="4">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>商品W</v>
+      </c>
+      <c r="E7" s="4">
+        <v>712</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="2"/>
+        <v>1980</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="3"/>
+        <v>2772</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="4"/>
+        <v>2578</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="5"/>
+        <v>1835536</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="6"/>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="8"/>
+        <v>425776</v>
+      </c>
+      <c r="M7" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="11">
+        <v>102</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>東海物産</v>
+      </c>
+      <c r="C8" s="4">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>商品X</v>
+      </c>
+      <c r="E8" s="4">
+        <v>571</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="3"/>
+        <v>2940</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="4"/>
+        <v>2705</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="5"/>
+        <v>1544555</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="6"/>
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="8"/>
+        <v>345455</v>
+      </c>
+      <c r="M8" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>B</v>
+      </c>
+      <c r="O8">
+        <v>11</v>
+      </c>
+      <c r="P8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="11">
+        <v>102</v>
+      </c>
+      <c r="B9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>東海物産</v>
+      </c>
+      <c r="C9" s="4">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>商品Y</v>
+      </c>
+      <c r="E9" s="4">
+        <v>607</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>1590</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="3"/>
+        <v>2226</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="4"/>
+        <v>2071</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="5"/>
+        <v>1257097</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="6"/>
+        <v>4.7E-2</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="8"/>
+        <v>291967</v>
+      </c>
+      <c r="M9" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>B</v>
+      </c>
+      <c r="O9">
+        <v>12</v>
+      </c>
+      <c r="P9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9">
+        <v>14.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="11">
+        <v>102</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>東海物産</v>
+      </c>
+      <c r="C10" s="4">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>商品Z</v>
+      </c>
+      <c r="E10" s="4">
+        <v>423</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
+        <v>1780</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="3"/>
+        <v>2492</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="4"/>
+        <v>2293</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="5"/>
+        <v>969939</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="6"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="8"/>
+        <v>216999</v>
+      </c>
+      <c r="M10" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="O10">
+        <v>21</v>
+      </c>
+      <c r="P10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10">
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="11">
+        <v>103</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ＳＢ商事</v>
+      </c>
+      <c r="C11" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>商品W</v>
+      </c>
+      <c r="E11" s="4">
+        <v>599</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>1980</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="3"/>
+        <v>2772</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="4"/>
+        <v>2551</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="5"/>
+        <v>1528049</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="6"/>
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="8"/>
+        <v>342029</v>
+      </c>
+      <c r="M11" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>B</v>
+      </c>
+      <c r="O11">
+        <v>22</v>
+      </c>
+      <c r="P11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11">
+        <v>12.54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="11">
+        <v>103</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ＳＢ商事</v>
+      </c>
+      <c r="C12" s="4">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>商品X</v>
+      </c>
+      <c r="E12" s="4">
+        <v>525</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="3"/>
+        <v>2940</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="4"/>
+        <v>2705</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="5"/>
+        <v>1420125</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="6"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="8"/>
+        <v>317625</v>
+      </c>
+      <c r="M12" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="11">
+        <v>103</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ＳＢ商事</v>
+      </c>
+      <c r="C13" s="4">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>商品Y</v>
+      </c>
+      <c r="E13" s="4">
+        <v>691</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>1590</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="3"/>
+        <v>2226</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="4"/>
+        <v>2071</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="5"/>
+        <v>1431061</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="6"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="8"/>
+        <v>332371</v>
+      </c>
+      <c r="M13" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>B</v>
+      </c>
+      <c r="O13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13">
+        <v>141.86000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="11">
+        <v>103</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ＳＢ商事</v>
+      </c>
+      <c r="C14" s="4">
+        <v>22</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>商品Z</v>
+      </c>
+      <c r="E14" s="4">
+        <v>617</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="2"/>
+        <v>1780</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="3"/>
+        <v>2492</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="4"/>
+        <v>2318</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="5"/>
+        <v>1430206</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="6"/>
+        <v>4.7E-2</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="8"/>
+        <v>331946</v>
+      </c>
+      <c r="M14" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="11">
+        <v>104</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>富士見屋</v>
+      </c>
+      <c r="C15" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>商品W</v>
+      </c>
+      <c r="E15" s="4">
+        <v>600</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="2"/>
+        <v>1980</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="3"/>
+        <v>2772</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="4"/>
+        <v>2578</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="5"/>
+        <v>1546800</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="6"/>
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="8"/>
+        <v>358800</v>
+      </c>
+      <c r="M15" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="11">
+        <v>104</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>富士見屋</v>
+      </c>
+      <c r="C16" s="4">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>商品X</v>
+      </c>
+      <c r="E16" s="4">
+        <v>670</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="3"/>
+        <v>2940</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="4"/>
+        <v>2735</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="5"/>
+        <v>1832450</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="6"/>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="8"/>
+        <v>425450</v>
+      </c>
+      <c r="M16" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="O16">
+        <v>560</v>
+      </c>
+      <c r="P16" s="2">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="11">
+        <v>104</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>富士見屋</v>
+      </c>
+      <c r="C17" s="4">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>商品Y</v>
+      </c>
+      <c r="E17" s="4">
+        <v>476</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="2"/>
+        <v>1590</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="3"/>
+        <v>2226</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="4"/>
+        <v>2048</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="5"/>
+        <v>974848</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="6"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="8"/>
+        <v>218008</v>
+      </c>
+      <c r="M17" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="O17">
+        <v>650</v>
+      </c>
+      <c r="P17" s="2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="11">
+        <v>104</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>富士見屋</v>
+      </c>
+      <c r="C18" s="4">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>商品Z</v>
+      </c>
+      <c r="E18" s="4">
+        <v>780</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="2"/>
+        <v>1780</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="3"/>
+        <v>2492</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="4"/>
+        <v>2318</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="5"/>
+        <v>1808040</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="6"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="8"/>
+        <v>419640</v>
+      </c>
+      <c r="M18" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="11"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:17" ht="19.5" thickBot="1">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16">
+        <f>SUM(E3:E18)</f>
+        <v>9314</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16">
+        <f t="shared" ref="F20:L20" si="10">SUM(I3:I18)</f>
+        <v>22529437</v>
+      </c>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16">
+        <f t="shared" si="10"/>
+        <v>458</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" si="10"/>
+        <v>5148317</v>
+      </c>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="22" spans="1:17" ht="19.5" thickBot="1">
+      <c r="A22" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="11">
+        <v>101</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="4">
+        <v>22</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="4">
+        <v>570</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1780</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2492</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2293</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1307010</v>
+      </c>
+      <c r="J24" s="6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="K24" s="5">
+        <v>26</v>
+      </c>
+      <c r="L24" s="5">
+        <v>292410</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="11">
+        <v>102</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="4">
+        <v>21</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="4">
+        <v>607</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1590</v>
+      </c>
+      <c r="G25" s="5">
+        <v>2226</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2071</v>
+      </c>
+      <c r="I25" s="5">
+        <v>1257097</v>
+      </c>
+      <c r="J25" s="6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="K25" s="5">
+        <v>28</v>
+      </c>
+      <c r="L25" s="5">
+        <v>291967</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="11">
+        <v>103</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="4">
+        <v>12</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="4">
+        <v>525</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2100</v>
+      </c>
+      <c r="G26" s="5">
+        <v>2940</v>
+      </c>
+      <c r="H26" s="5">
+        <v>2705</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1420125</v>
+      </c>
+      <c r="J26" s="6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="K26" s="5">
+        <v>22</v>
+      </c>
+      <c r="L26" s="5">
+        <v>317625</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="11">
+        <v>103</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="4">
+        <v>21</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="4">
+        <v>691</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1590</v>
+      </c>
+      <c r="G27" s="5">
+        <v>2226</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2071</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1431061</v>
+      </c>
+      <c r="J27" s="6">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="K27" s="5">
+        <v>38</v>
+      </c>
+      <c r="L27" s="5">
+        <v>332371</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="11">
+        <v>103</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="4">
+        <v>22</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="4">
+        <v>617</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1780</v>
+      </c>
+      <c r="G28" s="5">
+        <v>2492</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2318</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1430206</v>
+      </c>
+      <c r="J28" s="6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="K28" s="5">
+        <v>28</v>
+      </c>
+      <c r="L28" s="5">
+        <v>331946</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="11"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:17" ht="19.5" thickBot="1">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16">
+        <f>SUM(E24:E28)</f>
+        <v>3010</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16">
+        <f t="shared" ref="F30:L30" si="11">SUM(I24:I28)</f>
+        <v>6845499</v>
+      </c>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16">
+        <f t="shared" si="11"/>
+        <v>142</v>
+      </c>
+      <c r="L30" s="16">
+        <f t="shared" si="11"/>
+        <v>1566319</v>
+      </c>
+      <c r="M30" s="17"/>
+    </row>
+    <row r="32" spans="1:17" ht="19.5" thickBot="1">
+      <c r="A32" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="5">
+        <f>DSUM(aa,B$33,$F$33:$F$34)</f>
+        <v>2043</v>
+      </c>
+      <c r="C34" s="5">
+        <f>DSUM(aa,C$33,$F$33:$F$34)</f>
+        <v>4950731</v>
+      </c>
+      <c r="D34" s="23">
+        <f>DSUM(aa,D$33,$F$33:$F$34)</f>
+        <v>1122251</v>
+      </c>
+      <c r="F34" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A35" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="5">
+        <f>DSUM(aa,B$33,$G$33:$G$34)</f>
+        <v>2313</v>
+      </c>
+      <c r="C35" s="5">
+        <f>DSUM(aa,C$33,$G$33:$G$34)</f>
+        <v>5607127</v>
+      </c>
+      <c r="D35" s="23">
+        <f>DSUM(aa,D$33,$G$33:$G$34)</f>
+        <v>1280197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="5">
+        <f>DSUM(aa,B$33,$H$33:$H$34)</f>
+        <v>2432</v>
+      </c>
+      <c r="C36" s="5">
+        <f>DSUM(aa,C$33,$H$33:$H$34)</f>
+        <v>5809441</v>
+      </c>
+      <c r="D36" s="23">
+        <f>DSUM(aa,D$33,$H$33:$H$34)</f>
+        <v>1323971</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A37" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="16">
+        <f>DSUM(aa,B$33,$I$33:$I$34)</f>
+        <v>2526</v>
+      </c>
+      <c r="C37" s="16">
+        <f>DSUM(aa,C$33,$I$33:$I$34)</f>
+        <v>6162138</v>
+      </c>
+      <c r="D37" s="24">
+        <f>DSUM(aa,D$33,$I$33:$I$34)</f>
+        <v>1421898</v>
+      </c>
+      <c r="F37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" t="s">
+        <v>99</v>
+      </c>
+      <c r="J37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="19.5" thickBot="1">
+      <c r="K38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="28">
+        <f>DMIN(aa,L2,F36:G37)</f>
+        <v>292410</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="23">
+        <f>DCOUNT(aa,1,H36:I37)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A41" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="24">
+        <f>DAVERAGE(aa,I2,J36:K38)</f>
+        <v>1657218.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A24:M28">
+    <sortCondition descending="1" ref="L23"/>
+  </sortState>
+  <mergeCells count="6">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="60" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FA268F-8095-4D6F-A3AE-53C25CD0E901}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" customWidth="1"/>
+    <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="19.5" thickBot="1">
+      <c r="A1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="11">
+        <v>101</v>
+      </c>
+      <c r="B3" s="4" t="str">
+        <f>VLOOKUP(A3,$N$3:$O$6,2,0)</f>
+        <v>東海ストア</v>
+      </c>
+      <c r="C3" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f>VLOOKUP(C3,$N$8:$P$11,2,0)</f>
+        <v>J商品</v>
+      </c>
+      <c r="E3" s="4">
+        <v>497</v>
+      </c>
+      <c r="F3" s="36">
+        <f>VLOOKUP(C3,$N$14:$P$15,INT(E3/500)+2,1)</f>
+        <v>0.27</v>
+      </c>
+      <c r="G3" s="5">
+        <f>ROUNDUP(VLOOKUP(C3,$N$8:$P$11,3,0)*(1+F3),-1)</f>
+        <v>3070</v>
+      </c>
+      <c r="H3" s="5">
+        <f>ROUNDUP(IF(G3&gt;=3000,G3*0.92,G3*0.93),0)</f>
+        <v>2825</v>
+      </c>
+      <c r="I3" s="5">
+        <f>H3*E3</f>
+        <v>1404025</v>
+      </c>
+      <c r="J3" s="5">
+        <f>I3-VLOOKUP(C3,$N$8:$P$11,3,0)*E3</f>
+        <v>202776</v>
+      </c>
+      <c r="K3" s="5">
+        <f>INT(IF(I3&gt;=1350000,I3*1.5%,I3*1.2%))</f>
+        <v>21060</v>
+      </c>
+      <c r="L3" s="12" t="str">
+        <f>IF(OR(E3&gt;=520,I3&gt;=200000),"良好", "努力")</f>
+        <v>良好</v>
+      </c>
+      <c r="N3">
+        <v>101</v>
+      </c>
+      <c r="O3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="11">
+        <v>102</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f t="shared" ref="B4:B18" si="0">VLOOKUP(A4,$N$3:$O$6,2,0)</f>
+        <v>ＢＩＧ商事</v>
+      </c>
+      <c r="C4" s="4">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f t="shared" ref="D4:D18" si="1">VLOOKUP(C4,$N$8:$P$11,2,0)</f>
+        <v>J商品</v>
+      </c>
+      <c r="E4" s="4">
+        <v>500</v>
+      </c>
+      <c r="F4" s="36">
+        <f t="shared" ref="F4:F18" si="2">VLOOKUP(C4,$N$14:$P$15,INT(E4/500)+2,1)</f>
+        <v>0.26</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G18" si="3">ROUNDUP(VLOOKUP(C4,$N$8:$P$11,3,0)*(1+F4),-1)</f>
+        <v>3050</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H18" si="4">ROUNDUP(IF(G4&gt;=3000,G4*0.92,G4*0.93),0)</f>
+        <v>2806</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" ref="I4:I18" si="5">H4*E4</f>
+        <v>1403000</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" ref="J4:J18" si="6">I4-VLOOKUP(C4,$N$8:$P$11,3,0)*E4</f>
+        <v>194500</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" ref="K4:K18" si="7">INT(IF(I4&gt;=1350000,I4*1.5%,I4*1.2%))</f>
+        <v>21045</v>
+      </c>
+      <c r="L4" s="12" t="str">
+        <f t="shared" ref="L4:L18" si="8">IF(OR(E4&gt;=520,I4&gt;=200000),"良好", "努力")</f>
+        <v>良好</v>
+      </c>
+      <c r="N4">
+        <v>102</v>
+      </c>
+      <c r="O4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="11">
+        <v>103</v>
+      </c>
+      <c r="B5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>マルハ商店</v>
+      </c>
+      <c r="C5" s="4">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>J商品</v>
+      </c>
+      <c r="E5" s="4">
+        <v>491</v>
+      </c>
+      <c r="F5" s="36">
+        <f t="shared" si="2"/>
+        <v>0.27</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="3"/>
+        <v>3070</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="4"/>
+        <v>2825</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="5"/>
+        <v>1387075</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="6"/>
+        <v>200328</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="7"/>
+        <v>20806</v>
+      </c>
+      <c r="L5" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>良好</v>
+      </c>
+      <c r="N5">
+        <v>103</v>
+      </c>
+      <c r="O5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="11">
+        <v>104</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>三共百貨店</v>
+      </c>
+      <c r="C6" s="4">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>J商品</v>
+      </c>
+      <c r="E6" s="4">
+        <v>572</v>
+      </c>
+      <c r="F6" s="36">
+        <f t="shared" si="2"/>
+        <v>0.26</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="3"/>
+        <v>3050</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="4"/>
+        <v>2806</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="5"/>
+        <v>1605032</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="6"/>
+        <v>222508</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="7"/>
+        <v>24075</v>
+      </c>
+      <c r="L6" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>良好</v>
+      </c>
+      <c r="N6">
+        <v>104</v>
+      </c>
+      <c r="O6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="11">
+        <v>101</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>東海ストア</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>K商品</v>
+      </c>
+      <c r="E7" s="4">
+        <v>684</v>
+      </c>
+      <c r="F7" s="36">
+        <f t="shared" si="2"/>
+        <v>0.26</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="3"/>
+        <v>2350</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="4"/>
+        <v>2186</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="5"/>
+        <v>1495224</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="6"/>
+        <v>220932</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="7"/>
+        <v>22428</v>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>良好</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="11">
+        <v>102</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ＢＩＧ商事</v>
+      </c>
+      <c r="C8" s="4">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>K商品</v>
+      </c>
+      <c r="E8" s="4">
+        <v>456</v>
+      </c>
+      <c r="F8" s="36">
+        <f t="shared" si="2"/>
+        <v>0.27</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="3"/>
+        <v>2370</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="4"/>
+        <v>2205</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="5"/>
+        <v>1005480</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="6"/>
+        <v>155952</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="7"/>
+        <v>12065</v>
+      </c>
+      <c r="L8" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>良好</v>
+      </c>
+      <c r="N8">
+        <v>11</v>
+      </c>
+      <c r="O8" t="s">
+        <v>117</v>
+      </c>
+      <c r="P8">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="11">
+        <v>103</v>
+      </c>
+      <c r="B9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>マルハ商店</v>
+      </c>
+      <c r="C9" s="4">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>K商品</v>
+      </c>
+      <c r="E9" s="4">
+        <v>492</v>
+      </c>
+      <c r="F9" s="36">
+        <f t="shared" si="2"/>
+        <v>0.27</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="3"/>
+        <v>2370</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="4"/>
+        <v>2205</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="5"/>
+        <v>1084860</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="6"/>
+        <v>168264</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="7"/>
+        <v>13018</v>
+      </c>
+      <c r="L9" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>良好</v>
+      </c>
+      <c r="N9">
+        <v>12</v>
+      </c>
+      <c r="O9" t="s">
+        <v>119</v>
+      </c>
+      <c r="P9">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="11">
+        <v>104</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>三共百貨店</v>
+      </c>
+      <c r="C10" s="4">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>K商品</v>
+      </c>
+      <c r="E10" s="4">
+        <v>618</v>
+      </c>
+      <c r="F10" s="36">
+        <f t="shared" si="2"/>
+        <v>0.26</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="3"/>
+        <v>2350</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="4"/>
+        <v>2186</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="5"/>
+        <v>1350948</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="6"/>
+        <v>199614</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="7"/>
+        <v>20264</v>
+      </c>
+      <c r="L10" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>良好</v>
+      </c>
+      <c r="N10">
+        <v>21</v>
+      </c>
+      <c r="O10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="11">
+        <v>101</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>東海ストア</v>
+      </c>
+      <c r="C11" s="4">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>L商品</v>
+      </c>
+      <c r="E11" s="4">
+        <v>517</v>
+      </c>
+      <c r="F11" s="36">
+        <f t="shared" si="2"/>
+        <v>0.24</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="3"/>
+        <v>3460</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="4"/>
+        <v>3184</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="5"/>
+        <v>1646128</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="6"/>
+        <v>206283</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="7"/>
+        <v>24691</v>
+      </c>
+      <c r="L11" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>良好</v>
+      </c>
+      <c r="N11">
+        <v>22</v>
+      </c>
+      <c r="O11" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="11">
+        <v>102</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ＢＩＧ商事</v>
+      </c>
+      <c r="C12" s="4">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>L商品</v>
+      </c>
+      <c r="E12" s="4">
+        <v>385</v>
+      </c>
+      <c r="F12" s="36">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="3"/>
+        <v>3490</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="4"/>
+        <v>3211</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="5"/>
+        <v>1236235</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="6"/>
+        <v>164010</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="7"/>
+        <v>14834</v>
+      </c>
+      <c r="L12" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>良好</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="11">
+        <v>103</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>マルハ商店</v>
+      </c>
+      <c r="C13" s="4">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>L商品</v>
+      </c>
+      <c r="E13" s="4">
+        <v>510</v>
+      </c>
+      <c r="F13" s="36">
+        <f t="shared" si="2"/>
+        <v>0.24</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="3"/>
+        <v>3460</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="4"/>
+        <v>3184</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="5"/>
+        <v>1623840</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="6"/>
+        <v>203490</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="7"/>
+        <v>24357</v>
+      </c>
+      <c r="L13" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>良好</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="11">
+        <v>104</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>三共百貨店</v>
+      </c>
+      <c r="C14" s="4">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>L商品</v>
+      </c>
+      <c r="E14" s="4">
+        <v>498</v>
+      </c>
+      <c r="F14" s="36">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="3"/>
+        <v>3490</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="4"/>
+        <v>3211</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="5"/>
+        <v>1599078</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="6"/>
+        <v>212148</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="7"/>
+        <v>23986</v>
+      </c>
+      <c r="L14" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>良好</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14" s="35">
+        <v>0.27</v>
+      </c>
+      <c r="P14" s="35">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="11">
+        <v>101</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>東海ストア</v>
+      </c>
+      <c r="C15" s="4">
+        <v>22</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>M商品</v>
+      </c>
+      <c r="E15" s="4">
+        <v>513</v>
+      </c>
+      <c r="F15" s="36">
+        <f t="shared" si="2"/>
+        <v>0.24</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="3"/>
+        <v>2550</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="4"/>
+        <v>2372</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="5"/>
+        <v>1216836</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="6"/>
+        <v>162108</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="7"/>
+        <v>14602</v>
+      </c>
+      <c r="L15" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>良好</v>
+      </c>
+      <c r="N15">
+        <v>20</v>
+      </c>
+      <c r="O15" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="P15" s="35">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="11">
+        <v>102</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ＢＩＧ商事</v>
+      </c>
+      <c r="C16" s="4">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>M商品</v>
+      </c>
+      <c r="E16" s="4">
+        <v>470</v>
+      </c>
+      <c r="F16" s="36">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="3"/>
+        <v>2570</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="4"/>
+        <v>2391</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="5"/>
+        <v>1123770</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="6"/>
+        <v>157450</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="7"/>
+        <v>13485</v>
+      </c>
+      <c r="L16" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>良好</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="11">
+        <v>103</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>マルハ商店</v>
+      </c>
+      <c r="C17" s="4">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>M商品</v>
+      </c>
+      <c r="E17" s="4">
+        <v>520</v>
+      </c>
+      <c r="F17" s="36">
+        <f t="shared" si="2"/>
+        <v>0.24</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="3"/>
+        <v>2550</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="4"/>
+        <v>2372</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="5"/>
+        <v>1233440</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="6"/>
+        <v>164320</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="7"/>
+        <v>14801</v>
+      </c>
+      <c r="L17" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>良好</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="11">
+        <v>104</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>三共百貨店</v>
+      </c>
+      <c r="C18" s="4">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>M商品</v>
+      </c>
+      <c r="E18" s="4">
+        <v>429</v>
+      </c>
+      <c r="F18" s="36">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="3"/>
+        <v>2570</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="4"/>
+        <v>2391</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="5"/>
+        <v>1025739</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="6"/>
+        <v>143715</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="7"/>
+        <v>12308</v>
+      </c>
+      <c r="L18" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>良好</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="11"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16">
+        <f>SUM(E3:E18)</f>
+        <v>8152</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16">
+        <f t="shared" ref="F20:K20" si="9">SUM(I3:I18)</f>
+        <v>21440710</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="9"/>
+        <v>2978398</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" si="9"/>
+        <v>297825</v>
+      </c>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="22" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A22" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="11">
+        <v>102</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="4">
+        <v>12</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="4">
+        <v>456</v>
+      </c>
+      <c r="F24" s="36">
+        <v>0.27</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2370</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2205</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1005480</v>
+      </c>
+      <c r="J24" s="5">
+        <v>155952</v>
+      </c>
+      <c r="K24" s="5">
+        <v>12065</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="11">
+        <v>103</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="4">
+        <v>12</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="4">
+        <v>492</v>
+      </c>
+      <c r="F25" s="36">
+        <v>0.27</v>
+      </c>
+      <c r="G25" s="5">
+        <v>2370</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2205</v>
+      </c>
+      <c r="I25" s="5">
+        <v>1084860</v>
+      </c>
+      <c r="J25" s="5">
+        <v>168264</v>
+      </c>
+      <c r="K25" s="5">
+        <v>13018</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="11">
+        <v>102</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="4">
+        <v>22</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="4">
+        <v>470</v>
+      </c>
+      <c r="F26" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="G26" s="5">
+        <v>2570</v>
+      </c>
+      <c r="H26" s="5">
+        <v>2391</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1123770</v>
+      </c>
+      <c r="J26" s="5">
+        <v>157450</v>
+      </c>
+      <c r="K26" s="5">
+        <v>13485</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="11">
+        <v>101</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="4">
+        <v>22</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="4">
+        <v>513</v>
+      </c>
+      <c r="F27" s="36">
+        <v>0.24</v>
+      </c>
+      <c r="G27" s="5">
+        <v>2550</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2372</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1216836</v>
+      </c>
+      <c r="J27" s="5">
+        <v>162108</v>
+      </c>
+      <c r="K27" s="5">
+        <v>14602</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="11">
+        <v>103</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="4">
+        <v>22</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="4">
+        <v>520</v>
+      </c>
+      <c r="F28" s="36">
+        <v>0.24</v>
+      </c>
+      <c r="G28" s="5">
+        <v>2550</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2372</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1233440</v>
+      </c>
+      <c r="J28" s="5">
+        <v>164320</v>
+      </c>
+      <c r="K28" s="5">
+        <v>14801</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="11">
+        <v>102</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="4">
+        <v>21</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="4">
+        <v>385</v>
+      </c>
+      <c r="F29" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="G29" s="5">
+        <v>3490</v>
+      </c>
+      <c r="H29" s="5">
+        <v>3211</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1236235</v>
+      </c>
+      <c r="J29" s="5">
+        <v>164010</v>
+      </c>
+      <c r="K29" s="5">
+        <v>14834</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="11"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16">
+        <f>SUM(E24:E29)</f>
+        <v>2836</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16">
+        <f t="shared" ref="F31:K31" si="10">SUM(I24:I29)</f>
+        <v>6900621</v>
+      </c>
+      <c r="J31" s="16">
+        <f t="shared" si="10"/>
+        <v>972104</v>
+      </c>
+      <c r="K31" s="16">
+        <f t="shared" si="10"/>
+        <v>82805</v>
+      </c>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" spans="1:12" ht="19.5" thickBot="1"/>
+    <row r="33" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A33" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="F33" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" t="s">
+        <v>104</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A34" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" t="s">
+        <v>116</v>
+      </c>
+      <c r="O34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="5">
+        <f>DSUM(bb,B$34,$F$33:$F$34)</f>
+        <v>2211</v>
+      </c>
+      <c r="C35" s="5">
+        <f>DSUM(bb,C$34,$F$33:$F$34)</f>
+        <v>5762213</v>
+      </c>
+      <c r="D35" s="23">
+        <f>DSUM(bb,D$34,$F$33:$F$34)</f>
+        <v>792099</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A36" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="5">
+        <f>DSUM(bb,B$34,$G$33:$G$34)</f>
+        <v>1811</v>
+      </c>
+      <c r="C36" s="5">
+        <f>DSUM(bb,C$34,$G$33:$G$34)</f>
+        <v>4768485</v>
+      </c>
+      <c r="D36" s="23">
+        <f>DSUM(bb,D$34,$G$33:$G$34)</f>
+        <v>671912</v>
+      </c>
+      <c r="N36" t="s">
+        <v>131</v>
+      </c>
+      <c r="O36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="5">
+        <f>DSUM(bb,B$34,$H$33:$H$34)</f>
+        <v>2013</v>
+      </c>
+      <c r="C37" s="5">
+        <f>DSUM(bb,C$34,$H$33:$H$34)</f>
+        <v>5329215</v>
+      </c>
+      <c r="D37" s="23">
+        <f>DSUM(bb,D$34,$H$33:$H$34)</f>
+        <v>736402</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A38" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="16">
+        <f>DSUM(bb,B$34,$I$33:$I$34)</f>
+        <v>2117</v>
+      </c>
+      <c r="C38" s="16">
+        <f>DSUM(bb,C$34,$I$33:$I$34)</f>
+        <v>5580797</v>
+      </c>
+      <c r="D38" s="24">
+        <f>DSUM(bb,D$34,$I$33:$I$34)</f>
+        <v>777985</v>
+      </c>
+      <c r="N38" t="s">
+        <v>133</v>
+      </c>
+      <c r="O38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="19.5" thickBot="1"/>
+    <row r="40" spans="1:15">
+      <c r="A40" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="28">
+        <f>DSUM(bb,J2,O33:O34)</f>
+        <v>2233636</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="23">
+        <f>DMAX(bb,I2,N35:O36)</f>
+        <v>1404025</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A42" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="24">
+        <f>DCOUNT(bb,1,N37:O38)</f>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A24:L29">
+    <sortCondition ref="I23"/>
+  </sortState>
+  <mergeCells count="6">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/inside_office/excel/「Excel」1級.xlsx
+++ b/inside_office/excel/「Excel」1級.xlsx
@@ -5,25 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\012Yeung\openforward\inside_office\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\012Yeung\github\openforward\inside_office\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FED1722-BCFA-41BE-82C9-FD3BE6EA5EC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BB8504-B79F-4B39-B685-BA13376175A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="1-3" sheetId="2" r:id="rId2"/>
     <sheet name="1-6" sheetId="3" r:id="rId3"/>
     <sheet name="1-8" sheetId="4" r:id="rId4"/>
+    <sheet name="1-10" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1-10'!$A$2:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1-3'!$A$2:$L$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1-6'!$A$2:$M$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1-8'!$A$2:$L$18</definedName>
     <definedName name="aa">'1-6'!$A$2:$M$18</definedName>
     <definedName name="bb">'1-8'!$A$2:$L$18</definedName>
+    <definedName name="ee">'1-10'!$A$2:$K$18</definedName>
     <definedName name="主張諸手当計算表">'1-3'!$A$2:$L$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="165">
   <si>
     <t>得意先別売上一覧表</t>
     <rPh sb="0" eb="2">
@@ -1078,6 +1081,274 @@
   </si>
   <si>
     <t>&gt;=20000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸出品販売一覧表</t>
+    <rPh sb="0" eb="3">
+      <t>ユシュツヒン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ハンバイイチラン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決済日</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手数料率</t>
+    <rPh sb="0" eb="3">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売価(＄)</t>
+    <rPh sb="0" eb="2">
+      <t>バイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手数料(＄)</t>
+    <rPh sb="0" eb="3">
+      <t>テスウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売額(＄)</t>
+    <rPh sb="0" eb="3">
+      <t>ハンバイガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>協栄物産</t>
+  </si>
+  <si>
+    <t>協栄物産</t>
+    <rPh sb="0" eb="2">
+      <t>キョウエイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブッサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中川商事</t>
+  </si>
+  <si>
+    <t>中川商事</t>
+    <rPh sb="0" eb="2">
+      <t>ナカカワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＳＫ貿易</t>
+  </si>
+  <si>
+    <t>ＳＫ貿易</t>
+    <rPh sb="2" eb="4">
+      <t>ボウエキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東海総業</t>
+  </si>
+  <si>
+    <t>東海総業</t>
+    <rPh sb="0" eb="2">
+      <t>トウカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P商品</t>
+  </si>
+  <si>
+    <t>P商品</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Q商品</t>
+  </si>
+  <si>
+    <t>Q商品</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R商品</t>
+  </si>
+  <si>
+    <t>R商品</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S商品</t>
+  </si>
+  <si>
+    <t>S商品</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸出品販売一覧表（販売数530以上630未満）</t>
+    <rPh sb="0" eb="3">
+      <t>ユシュツヒン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ハンバイイチラン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ハンバイスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売先別集計表</t>
+    <rPh sb="0" eb="3">
+      <t>ハンバイサキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シュウケイヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名がR商品以外の販売額($)の平均</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ハンバイガク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売数が630未満で手数料率が5.1%以上の件数</t>
+    <rPh sb="0" eb="3">
+      <t>ハンバイスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売先名が中川商事または東海総業の販売数の最小</t>
+    <rPh sb="0" eb="3">
+      <t>ハンバイサキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナカガワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウカイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウギョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;&gt;R商品</t>
+    <rPh sb="3" eb="5">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;630</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt;=5.1%</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1119,7 +1390,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1271,6 +1542,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1281,7 +1565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1310,35 +1594,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
@@ -1952,6 +2254,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-56E5-4151-81DB-C4205C635DBA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1967,6 +2274,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-56E5-4151-81DB-C4205C635DBA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1982,6 +2294,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-56E5-4151-81DB-C4205C635DBA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1997,6 +2314,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-56E5-4151-81DB-C4205C635DBA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="0.0%" sourceLinked="0"/>
@@ -2537,6 +2859,361 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>販売額</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>＄</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>の構成比</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1-10'!$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>販売額(＄)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1-10'!$A$35:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>協栄物産</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>中川商事</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ＳＫ貿易</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>東海総業</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1-10'!$D$35:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_);[Red]\(#,##0.00\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>39033.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46239.740000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45717.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49994.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E9A3-4585-B98D-B583517022F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2618,6 +3295,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4186,6 +4903,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4289,6 +5525,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3088E08B-19CA-4F5E-89F2-1D96008F0B70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68BFEEB3-1CCE-4038-AF17-DEFB05A21ED6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4598,21 +5875,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="8" t="s">
@@ -5644,20 +6921,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" thickBot="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:16">
@@ -5710,14 +6987,14 @@
         <v>43</v>
       </c>
       <c r="B3" s="4" t="str">
-        <f>VLOOKUP(A3,$N$3:$O$6,2,0)</f>
+        <f t="shared" ref="B3:B14" si="0">VLOOKUP(A3,$N$3:$O$6,2,0)</f>
         <v>田島　洋平</v>
       </c>
       <c r="C3" s="4">
         <v>6</v>
       </c>
       <c r="D3" s="5">
-        <f>VLOOKUP(RIGHT(A3,1),$N$8:$O$10,2,0)*C3</f>
+        <f t="shared" ref="D3:D14" si="1">VLOOKUP(RIGHT(A3,1),$N$8:$O$10,2,0)*C3</f>
         <v>11880</v>
       </c>
       <c r="E3" s="4">
@@ -5731,15 +7008,15 @@
         <v>263000</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H14" si="0">ROUND(F3*10000*IF(OR(E3&gt;=110,F3&gt;=2500),0.24%,0.21%),-1)</f>
+        <f t="shared" ref="H3:H14" si="2">ROUND(F3*10000*IF(OR(E3&gt;=110,F3&gt;=2500),0.24%,0.21%),-1)</f>
         <v>45910</v>
       </c>
       <c r="I3" s="4">
-        <f>VLOOKUP(F3,$N$12:$P$13,INT(E3/100)+2,1)</f>
+        <f t="shared" ref="I3:I14" si="3">VLOOKUP(F3,$N$12:$P$13,INT(E3/100)+2,1)</f>
         <v>90</v>
       </c>
       <c r="J3" s="5">
-        <f>ROUNDUP(G3*VLOOKUP(E3,$N$15:$O$17,2,TRUE)*I3/100,-1)</f>
+        <f t="shared" ref="J3:J14" si="4">ROUNDUP(G3*VLOOKUP(E3,$N$15:$O$17,2,TRUE)*I3/100,-1)</f>
         <v>15860</v>
       </c>
       <c r="K3" s="7">
@@ -5762,14 +7039,14 @@
         <v>43</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f>VLOOKUP(A4,$N$3:$O$6,2,0)</f>
+        <f t="shared" si="0"/>
         <v>田島　洋平</v>
       </c>
       <c r="C4" s="4">
         <v>7</v>
       </c>
       <c r="D4" s="5">
-        <f>VLOOKUP(RIGHT(A4,1),$N$8:$O$10,2,0)*C4</f>
+        <f t="shared" si="1"/>
         <v>13860</v>
       </c>
       <c r="E4" s="4">
@@ -5779,27 +7056,27 @@
         <v>2026</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G14" si="1">ROUND(F4*10000/E4,-3)</f>
+        <f t="shared" ref="G4:G14" si="5">ROUND(F4*10000/E4,-3)</f>
         <v>213000</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42550</v>
       </c>
       <c r="I4" s="4">
-        <f>VLOOKUP(F4,$N$12:$P$13,INT(E4/100)+2,1)</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="J4" s="5">
-        <f>ROUNDUP(G4*VLOOKUP(E4,$N$15:$O$17,2,TRUE)*I4/100,-1)</f>
+        <f t="shared" si="4"/>
         <v>14570</v>
       </c>
       <c r="K4" s="7">
-        <f t="shared" ref="K4:K14" si="2">D4+H4+J4</f>
+        <f t="shared" ref="K4:K14" si="6">D4+H4+J4</f>
         <v>70980</v>
       </c>
       <c r="L4" s="12" t="str">
-        <f t="shared" ref="L4:L14" si="3">IF(AND(G4&gt;=239000,I4&gt;=95),"**","*")</f>
+        <f t="shared" ref="L4:L14" si="7">IF(AND(G4&gt;=239000,I4&gt;=95),"**","*")</f>
         <v>*</v>
       </c>
       <c r="N4" t="s">
@@ -5814,14 +7091,14 @@
         <v>43</v>
       </c>
       <c r="B5" s="4" t="str">
-        <f>VLOOKUP(A5,$N$3:$O$6,2,0)</f>
+        <f t="shared" si="0"/>
         <v>田島　洋平</v>
       </c>
       <c r="C5" s="4">
         <v>8</v>
       </c>
       <c r="D5" s="5">
-        <f>VLOOKUP(RIGHT(A5,1),$N$8:$O$10,2,0)*C5</f>
+        <f t="shared" si="1"/>
         <v>15840</v>
       </c>
       <c r="E5" s="4">
@@ -5831,27 +7108,27 @@
         <v>2914</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>297000</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>69940</v>
       </c>
       <c r="I5" s="4">
-        <f>VLOOKUP(F5,$N$12:$P$13,INT(E5/100)+2,1)</f>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="J5" s="5">
-        <f>ROUNDUP(G5*VLOOKUP(E5,$N$15:$O$17,2,TRUE)*I5/100,-1)</f>
+        <f t="shared" si="4"/>
         <v>23030</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>108810</v>
       </c>
       <c r="L5" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>**</v>
       </c>
       <c r="N5" t="s">
@@ -5866,14 +7143,14 @@
         <v>44</v>
       </c>
       <c r="B6" s="4" t="str">
-        <f>VLOOKUP(A6,$N$3:$O$6,2,0)</f>
+        <f t="shared" si="0"/>
         <v>佐藤　緑子</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
       </c>
       <c r="D6" s="5">
-        <f>VLOOKUP(RIGHT(A6,1),$N$8:$O$10,2,0)*C6</f>
+        <f t="shared" si="1"/>
         <v>10300</v>
       </c>
       <c r="E6" s="4">
@@ -5883,27 +7160,27 @@
         <v>2631</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>274000</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>63140</v>
       </c>
       <c r="I6" s="4">
-        <f>VLOOKUP(F6,$N$12:$P$13,INT(E6/100)+2,1)</f>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="J6" s="5">
-        <f>ROUNDUP(G6*VLOOKUP(E6,$N$15:$O$17,2,TRUE)*I6/100,-1)</f>
+        <f t="shared" si="4"/>
         <v>21250</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>94690</v>
       </c>
       <c r="L6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>**</v>
       </c>
       <c r="N6" t="s">
@@ -5918,14 +7195,14 @@
         <v>44</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f>VLOOKUP(A7,$N$3:$O$6,2,0)</f>
+        <f t="shared" si="0"/>
         <v>佐藤　緑子</v>
       </c>
       <c r="C7" s="4">
         <v>8</v>
       </c>
       <c r="D7" s="5">
-        <f>VLOOKUP(RIGHT(A7,1),$N$8:$O$10,2,0)*C7</f>
+        <f t="shared" si="1"/>
         <v>16480</v>
       </c>
       <c r="E7" s="4">
@@ -5935,27 +7212,27 @@
         <v>1805</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>179000</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>37910</v>
       </c>
       <c r="I7" s="4">
-        <f>VLOOKUP(F7,$N$12:$P$13,INT(E7/100)+2,1)</f>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="J7" s="5">
-        <f>ROUNDUP(G7*VLOOKUP(E7,$N$15:$O$17,2,TRUE)*I7/100,-1)</f>
+        <f t="shared" si="4"/>
         <v>12930</v>
       </c>
       <c r="K7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>67320</v>
       </c>
       <c r="L7" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>*</v>
       </c>
     </row>
@@ -5964,14 +7241,14 @@
         <v>44</v>
       </c>
       <c r="B8" s="4" t="str">
-        <f>VLOOKUP(A8,$N$3:$O$6,2,0)</f>
+        <f t="shared" si="0"/>
         <v>佐藤　緑子</v>
       </c>
       <c r="C8" s="4">
         <v>9</v>
       </c>
       <c r="D8" s="5">
-        <f>VLOOKUP(RIGHT(A8,1),$N$8:$O$10,2,0)*C8</f>
+        <f t="shared" si="1"/>
         <v>18540</v>
       </c>
       <c r="E8" s="4">
@@ -5981,27 +7258,27 @@
         <v>3604</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>225000</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>86500</v>
       </c>
       <c r="I8" s="4">
-        <f>VLOOKUP(F8,$N$12:$P$13,INT(E8/100)+2,1)</f>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="J8" s="5">
-        <f>ROUNDUP(G8*VLOOKUP(E8,$N$15:$O$17,2,TRUE)*I8/100,-1)</f>
+        <f t="shared" si="4"/>
         <v>20470</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>125510</v>
       </c>
       <c r="L8" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>*</v>
       </c>
       <c r="N8" t="s">
@@ -6016,14 +7293,14 @@
         <v>45</v>
       </c>
       <c r="B9" s="4" t="str">
-        <f>VLOOKUP(A9,$N$3:$O$6,2,0)</f>
+        <f t="shared" si="0"/>
         <v>久保田　光</v>
       </c>
       <c r="C9" s="4">
         <v>5</v>
       </c>
       <c r="D9" s="5">
-        <f>VLOOKUP(RIGHT(A9,1),$N$8:$O$10,2,0)*C9</f>
+        <f t="shared" si="1"/>
         <v>10850</v>
       </c>
       <c r="E9" s="4">
@@ -6033,27 +7310,27 @@
         <v>2537</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>239000</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>60890</v>
       </c>
       <c r="I9" s="4">
-        <f>VLOOKUP(F9,$N$12:$P$13,INT(E9/100)+2,1)</f>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="J9" s="5">
-        <f>ROUNDUP(G9*VLOOKUP(E9,$N$15:$O$17,2,TRUE)*I9/100,-1)</f>
+        <f t="shared" si="4"/>
         <v>17260</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>89000</v>
       </c>
       <c r="L9" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>**</v>
       </c>
       <c r="N9" t="s">
@@ -6068,14 +7345,14 @@
         <v>45</v>
       </c>
       <c r="B10" s="4" t="str">
-        <f>VLOOKUP(A10,$N$3:$O$6,2,0)</f>
+        <f t="shared" si="0"/>
         <v>久保田　光</v>
       </c>
       <c r="C10" s="4">
         <v>6</v>
       </c>
       <c r="D10" s="5">
-        <f>VLOOKUP(RIGHT(A10,1),$N$8:$O$10,2,0)*C10</f>
+        <f t="shared" si="1"/>
         <v>13020</v>
       </c>
       <c r="E10" s="4">
@@ -6085,27 +7362,27 @@
         <v>2227</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>202000</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>53450</v>
       </c>
       <c r="I10" s="4">
-        <f>VLOOKUP(F10,$N$12:$P$13,INT(E10/100)+2,1)</f>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="J10" s="5">
-        <f>ROUNDUP(G10*VLOOKUP(E10,$N$15:$O$17,2,TRUE)*I10/100,-1)</f>
+        <f t="shared" si="4"/>
         <v>16320</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>82790</v>
       </c>
       <c r="L10" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>*</v>
       </c>
       <c r="N10" t="s">
@@ -6120,14 +7397,14 @@
         <v>45</v>
       </c>
       <c r="B11" s="4" t="str">
-        <f>VLOOKUP(A11,$N$3:$O$6,2,0)</f>
+        <f t="shared" si="0"/>
         <v>久保田　光</v>
       </c>
       <c r="C11" s="4">
         <v>10</v>
       </c>
       <c r="D11" s="5">
-        <f>VLOOKUP(RIGHT(A11,1),$N$8:$O$10,2,0)*C11</f>
+        <f t="shared" si="1"/>
         <v>21700</v>
       </c>
       <c r="E11" s="4">
@@ -6137,27 +7414,27 @@
         <v>3598</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>240000</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>86350</v>
       </c>
       <c r="I11" s="4">
-        <f>VLOOKUP(F11,$N$12:$P$13,INT(E11/100)+2,1)</f>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="J11" s="5">
-        <f>ROUNDUP(G11*VLOOKUP(E11,$N$15:$O$17,2,TRUE)*I11/100,-1)</f>
+        <f t="shared" si="4"/>
         <v>21830</v>
       </c>
       <c r="K11" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>129880</v>
       </c>
       <c r="L11" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>**</v>
       </c>
     </row>
@@ -6166,14 +7443,14 @@
         <v>46</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f>VLOOKUP(A12,$N$3:$O$6,2,0)</f>
+        <f t="shared" si="0"/>
         <v>南　さくら</v>
       </c>
       <c r="C12" s="4">
         <v>6</v>
       </c>
       <c r="D12" s="5">
-        <f>VLOOKUP(RIGHT(A12,1),$N$8:$O$10,2,0)*C12</f>
+        <f t="shared" si="1"/>
         <v>12360</v>
       </c>
       <c r="E12" s="4">
@@ -6183,27 +7460,27 @@
         <v>2601</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>268000</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>62420</v>
       </c>
       <c r="I12" s="4">
-        <f>VLOOKUP(F12,$N$12:$P$13,INT(E12/100)+2,1)</f>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="J12" s="5">
-        <f>ROUNDUP(G12*VLOOKUP(E12,$N$15:$O$17,2,TRUE)*I12/100,-1)</f>
+        <f t="shared" si="4"/>
         <v>20780</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>95560</v>
       </c>
       <c r="L12" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>**</v>
       </c>
       <c r="N12">
@@ -6221,14 +7498,14 @@
         <v>46</v>
       </c>
       <c r="B13" s="4" t="str">
-        <f>VLOOKUP(A13,$N$3:$O$6,2,0)</f>
+        <f t="shared" si="0"/>
         <v>南　さくら</v>
       </c>
       <c r="C13" s="4">
         <v>7</v>
       </c>
       <c r="D13" s="5">
-        <f>VLOOKUP(RIGHT(A13,1),$N$8:$O$10,2,0)*C13</f>
+        <f t="shared" si="1"/>
         <v>14420</v>
       </c>
       <c r="E13" s="4">
@@ -6238,27 +7515,27 @@
         <v>2307</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>271000</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48450</v>
       </c>
       <c r="I13" s="4">
-        <f>VLOOKUP(F13,$N$12:$P$13,INT(E13/100)+2,1)</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="J13" s="5">
-        <f>ROUNDUP(G13*VLOOKUP(E13,$N$15:$O$17,2,TRUE)*I13/100,-1)</f>
+        <f t="shared" si="4"/>
         <v>16350</v>
       </c>
       <c r="K13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>79220</v>
       </c>
       <c r="L13" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>*</v>
       </c>
       <c r="N13">
@@ -6276,14 +7553,14 @@
         <v>46</v>
       </c>
       <c r="B14" s="4" t="str">
-        <f>VLOOKUP(A14,$N$3:$O$6,2,0)</f>
+        <f t="shared" si="0"/>
         <v>南　さくら</v>
       </c>
       <c r="C14" s="4">
         <v>9</v>
       </c>
       <c r="D14" s="5">
-        <f>VLOOKUP(RIGHT(A14,1),$N$8:$O$10,2,0)*C14</f>
+        <f t="shared" si="1"/>
         <v>18540</v>
       </c>
       <c r="E14" s="4">
@@ -6293,27 +7570,27 @@
         <v>3540</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>191000</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>84960</v>
       </c>
       <c r="I14" s="4">
-        <f>VLOOKUP(F14,$N$12:$P$13,INT(E14/100)+2,1)</f>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="J14" s="5">
-        <f>ROUNDUP(G14*VLOOKUP(E14,$N$15:$O$17,2,TRUE)*I14/100,-1)</f>
+        <f t="shared" si="4"/>
         <v>17380</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>120880</v>
       </c>
       <c r="L14" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>*</v>
       </c>
     </row>
@@ -6343,30 +7620,30 @@
         <v>30</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <f>SUM(D3:D14)</f>
         <v>177790</v>
       </c>
-      <c r="E16" s="20">
-        <f t="shared" ref="E16:K16" si="4">SUM(E3:E14)</f>
+      <c r="E16" s="19">
+        <f t="shared" ref="E16:K16" si="8">SUM(E3:E14)</f>
         <v>1366</v>
       </c>
-      <c r="F16" s="20">
-        <f t="shared" si="4"/>
+      <c r="F16" s="19">
+        <f t="shared" si="8"/>
         <v>31976</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20">
-        <f t="shared" si="4"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19">
+        <f t="shared" si="8"/>
         <v>742470</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20">
-        <f t="shared" si="4"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19">
+        <f t="shared" si="8"/>
         <v>218030</v>
       </c>
-      <c r="K16" s="20">
-        <f t="shared" si="4"/>
+      <c r="K16" s="19">
+        <f t="shared" si="8"/>
         <v>1138290</v>
       </c>
       <c r="L16" s="17"/>
@@ -6379,7 +7656,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="J17" s="3"/>
-      <c r="K17" s="19"/>
+      <c r="K17" s="18"/>
       <c r="N17">
         <v>110</v>
       </c>
@@ -6388,20 +7665,20 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="8" t="s">
@@ -6651,41 +7928,41 @@
         <v>30</v>
       </c>
       <c r="C26" s="15"/>
-      <c r="D26" s="20">
+      <c r="D26" s="19">
         <f>SUM(D20:D24)</f>
         <v>71050</v>
       </c>
-      <c r="E26" s="20">
-        <f t="shared" ref="E26:K26" si="5">SUM(E20:E24)</f>
+      <c r="E26" s="19">
+        <f t="shared" ref="E26:K26" si="9">SUM(E20:E24)</f>
         <v>547</v>
       </c>
-      <c r="F26" s="20">
-        <f t="shared" si="5"/>
+      <c r="F26" s="19">
+        <f t="shared" si="9"/>
         <v>14281</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20">
-        <f t="shared" si="5"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19">
+        <f t="shared" si="9"/>
         <v>342740</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20">
-        <f t="shared" si="5"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19">
+        <f t="shared" si="9"/>
         <v>104150</v>
       </c>
-      <c r="K26" s="20">
-        <f t="shared" si="5"/>
+      <c r="K26" s="19">
+        <f t="shared" si="9"/>
         <v>517940</v>
       </c>
       <c r="L26" s="17"/>
     </row>
     <row r="28" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="8" t="s">
@@ -6725,7 +8002,7 @@
         <f>DSUM(主張諸手当計算表,C$29,$F$29:$F$30)</f>
         <v>158400</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="21">
         <f>DSUM(主張諸手当計算表,D$29,$F$29:$F$30)</f>
         <v>53460</v>
       </c>
@@ -6754,7 +8031,7 @@
         <f>DSUM(主張諸手当計算表,C$29,$G$29:$G$30)</f>
         <v>187550</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="21">
         <f>DSUM(主張諸手当計算表,D$29,$G$29:$G$30)</f>
         <v>54650</v>
       </c>
@@ -6771,7 +8048,7 @@
         <f>DSUM(主張諸手当計算表,C$29,$H$29:$H$30)</f>
         <v>200690</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="21">
         <f>DSUM(主張諸手当計算表,D$29,$H$29:$H$30)</f>
         <v>55410</v>
       </c>
@@ -6804,7 +8081,7 @@
         <f>DSUM(主張諸手当計算表,C$29,$I$29:$I$30)</f>
         <v>195830</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="22">
         <f>DSUM(主張諸手当計算表,D$29,$I$29:$I$30)</f>
         <v>54510</v>
       </c>
@@ -6826,40 +8103,40 @@
     </row>
     <row r="34" spans="1:11" ht="19.5" thickBot="1"/>
     <row r="35" spans="1:11">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28">
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="24">
         <f>DMAX(主張諸手当計算表,H2,F32:F33)</f>
         <v>86500</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="23">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="21">
         <f>DCOUNTA(主張諸手当計算表,,H32:I33)</f>
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="24">
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="22">
         <f>DAVERAGE(主張諸手当計算表,K2,J32:K33)</f>
         <v>81866.666666666672</v>
       </c>
@@ -6869,12 +8146,12 @@
     <sortCondition descending="1" ref="J19"/>
   </sortState>
   <mergeCells count="6">
+    <mergeCell ref="A37:E37"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A18:L18"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A37:E37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6890,7 +8167,7 @@
   </sheetPr>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:M18"/>
     </sheetView>
   </sheetViews>
@@ -6911,21 +8188,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="8" t="s">
@@ -7913,7 +9190,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16">
-        <f t="shared" ref="F20:L20" si="10">SUM(I3:I18)</f>
+        <f t="shared" ref="I20:L20" si="10">SUM(I3:I18)</f>
         <v>22529437</v>
       </c>
       <c r="J20" s="16"/>
@@ -7928,21 +9205,21 @@
       <c r="M20" s="17"/>
     </row>
     <row r="22" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="8" t="s">
@@ -8220,7 +9497,7 @@
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16">
-        <f t="shared" ref="F30:L30" si="11">SUM(I24:I28)</f>
+        <f t="shared" ref="I30:L30" si="11">SUM(I24:I28)</f>
         <v>6845499</v>
       </c>
       <c r="J30" s="16"/>
@@ -8235,15 +9512,15 @@
       <c r="M30" s="17"/>
     </row>
     <row r="32" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="28" t="s">
         <v>70</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -8280,7 +9557,7 @@
         <f>DSUM(aa,C$33,$F$33:$F$34)</f>
         <v>4950731</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="21">
         <f>DSUM(aa,D$33,$F$33:$F$34)</f>
         <v>1122251</v>
       </c>
@@ -8309,7 +9586,7 @@
         <f>DSUM(aa,C$33,$G$33:$G$34)</f>
         <v>5607127</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="21">
         <f>DSUM(aa,D$33,$G$33:$G$34)</f>
         <v>1280197</v>
       </c>
@@ -8326,7 +9603,7 @@
         <f>DSUM(aa,C$33,$H$33:$H$34)</f>
         <v>5809441</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="21">
         <f>DSUM(aa,D$33,$H$33:$H$34)</f>
         <v>1323971</v>
       </c>
@@ -8361,7 +9638,7 @@
         <f>DSUM(aa,C$33,$I$33:$I$34)</f>
         <v>6162138</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="22">
         <f>DSUM(aa,D$33,$I$33:$I$34)</f>
         <v>1421898</v>
       </c>
@@ -8387,43 +9664,43 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="28">
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="24">
         <f>DMIN(aa,L2,F36:G37)</f>
         <v>292410</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="23">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="21">
         <f>DCOUNT(aa,1,H36:I37)</f>
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="24">
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="22">
         <f>DAVERAGE(aa,I2,J36:K38)</f>
         <v>1657218.25</v>
       </c>
@@ -8433,12 +9710,12 @@
     <sortCondition descending="1" ref="L23"/>
   </sortState>
   <mergeCells count="6">
+    <mergeCell ref="A41:F41"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A22:M22"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A39:F39"/>
     <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F41"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8454,7 +9731,7 @@
   </sheetPr>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
@@ -8474,20 +9751,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" thickBot="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="8" t="s">
@@ -8551,7 +9828,7 @@
       <c r="E3" s="4">
         <v>497</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="30">
         <f>VLOOKUP(C3,$N$14:$P$15,INT(E3/500)+2,1)</f>
         <v>0.27</v>
       </c>
@@ -8604,7 +9881,7 @@
       <c r="E4" s="4">
         <v>500</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="30">
         <f t="shared" ref="F4:F18" si="2">VLOOKUP(C4,$N$14:$P$15,INT(E4/500)+2,1)</f>
         <v>0.26</v>
       </c>
@@ -8657,7 +9934,7 @@
       <c r="E5" s="4">
         <v>491</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="30">
         <f t="shared" si="2"/>
         <v>0.27</v>
       </c>
@@ -8710,7 +9987,7 @@
       <c r="E6" s="4">
         <v>572</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="30">
         <f t="shared" si="2"/>
         <v>0.26</v>
       </c>
@@ -8763,7 +10040,7 @@
       <c r="E7" s="4">
         <v>684</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="30">
         <f t="shared" si="2"/>
         <v>0.26</v>
       </c>
@@ -8810,7 +10087,7 @@
       <c r="E8" s="4">
         <v>456</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="30">
         <f t="shared" si="2"/>
         <v>0.27</v>
       </c>
@@ -8866,7 +10143,7 @@
       <c r="E9" s="4">
         <v>492</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="30">
         <f t="shared" si="2"/>
         <v>0.27</v>
       </c>
@@ -8922,7 +10199,7 @@
       <c r="E10" s="4">
         <v>618</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="30">
         <f t="shared" si="2"/>
         <v>0.26</v>
       </c>
@@ -8978,7 +10255,7 @@
       <c r="E11" s="4">
         <v>517</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="30">
         <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
@@ -9034,7 +10311,7 @@
       <c r="E12" s="4">
         <v>385</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="30">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
@@ -9081,7 +10358,7 @@
       <c r="E13" s="4">
         <v>510</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="30">
         <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
@@ -9128,7 +10405,7 @@
       <c r="E14" s="4">
         <v>498</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="30">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
@@ -9159,10 +10436,10 @@
       <c r="N14">
         <v>10</v>
       </c>
-      <c r="O14" s="35">
+      <c r="O14" s="29">
         <v>0.27</v>
       </c>
-      <c r="P14" s="35">
+      <c r="P14" s="29">
         <v>0.26</v>
       </c>
     </row>
@@ -9184,7 +10461,7 @@
       <c r="E15" s="4">
         <v>513</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="30">
         <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
@@ -9215,10 +10492,10 @@
       <c r="N15">
         <v>20</v>
       </c>
-      <c r="O15" s="35">
+      <c r="O15" s="29">
         <v>0.25</v>
       </c>
-      <c r="P15" s="35">
+      <c r="P15" s="29">
         <v>0.24</v>
       </c>
     </row>
@@ -9240,7 +10517,7 @@
       <c r="E16" s="4">
         <v>470</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="30">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
@@ -9287,7 +10564,7 @@
       <c r="E17" s="4">
         <v>520</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="30">
         <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
@@ -9334,7 +10611,7 @@
       <c r="E18" s="4">
         <v>429</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="30">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
@@ -9392,7 +10669,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16">
-        <f t="shared" ref="F20:K20" si="9">SUM(I3:I18)</f>
+        <f t="shared" ref="I20:K20" si="9">SUM(I3:I18)</f>
         <v>21440710</v>
       </c>
       <c r="J20" s="16">
@@ -9406,20 +10683,20 @@
       <c r="L20" s="17"/>
     </row>
     <row r="22" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
@@ -9475,7 +10752,7 @@
       <c r="E24" s="4">
         <v>456</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="30">
         <v>0.27</v>
       </c>
       <c r="G24" s="5">
@@ -9513,7 +10790,7 @@
       <c r="E25" s="4">
         <v>492</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="30">
         <v>0.27</v>
       </c>
       <c r="G25" s="5">
@@ -9551,7 +10828,7 @@
       <c r="E26" s="4">
         <v>470</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="30">
         <v>0.25</v>
       </c>
       <c r="G26" s="5">
@@ -9589,7 +10866,7 @@
       <c r="E27" s="4">
         <v>513</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="30">
         <v>0.24</v>
       </c>
       <c r="G27" s="5">
@@ -9627,7 +10904,7 @@
       <c r="E28" s="4">
         <v>520</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="30">
         <v>0.24</v>
       </c>
       <c r="G28" s="5">
@@ -9665,7 +10942,7 @@
       <c r="E29" s="4">
         <v>385</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="30">
         <v>0.25</v>
       </c>
       <c r="G29" s="5">
@@ -9716,7 +10993,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16">
-        <f t="shared" ref="F31:K31" si="10">SUM(I24:I29)</f>
+        <f t="shared" ref="I31:K31" si="10">SUM(I24:I29)</f>
         <v>6900621</v>
       </c>
       <c r="J31" s="16">
@@ -9731,12 +11008,12 @@
     </row>
     <row r="32" spans="1:12" ht="19.5" thickBot="1"/>
     <row r="33" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
       <c r="F33" t="s">
         <v>104</v>
       </c>
@@ -9754,7 +11031,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="28" t="s">
         <v>104</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -9794,7 +11071,7 @@
         <f>DSUM(bb,C$34,$F$33:$F$34)</f>
         <v>5762213</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="21">
         <f>DSUM(bb,D$34,$F$33:$F$34)</f>
         <v>792099</v>
       </c>
@@ -9817,7 +11094,7 @@
         <f>DSUM(bb,C$34,$G$33:$G$34)</f>
         <v>4768485</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="21">
         <f>DSUM(bb,D$34,$G$33:$G$34)</f>
         <v>671912</v>
       </c>
@@ -9840,7 +11117,7 @@
         <f>DSUM(bb,C$34,$H$33:$H$34)</f>
         <v>5329215</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="21">
         <f>DSUM(bb,D$34,$H$33:$H$34)</f>
         <v>736402</v>
       </c>
@@ -9863,7 +11140,7 @@
         <f>DSUM(bb,C$34,$I$33:$I$34)</f>
         <v>5580797</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="22">
         <f>DSUM(bb,D$34,$I$33:$I$34)</f>
         <v>777985</v>
       </c>
@@ -9876,43 +11153,43 @@
     </row>
     <row r="39" spans="1:15" ht="19.5" thickBot="1"/>
     <row r="40" spans="1:15">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="28">
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="24">
         <f>DSUM(bb,J2,O33:O34)</f>
         <v>2233636</v>
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="23">
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="21">
         <f>DMAX(bb,I2,N35:O36)</f>
         <v>1404025</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="24">
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="22">
         <f>DCOUNT(bb,1,N37:O38)</f>
         <v>7</v>
       </c>
@@ -9922,16 +11199,1410 @@
     <sortCondition ref="I23"/>
   </sortState>
   <mergeCells count="6">
+    <mergeCell ref="A42:F42"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A22:L22"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A9CB7D-4B91-4ABF-9695-855FB8BCDF09}">
+  <dimension ref="A1:O42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" customWidth="1"/>
+    <col min="13" max="13" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A1" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="25">
+        <v>101</v>
+      </c>
+      <c r="B3" s="23" t="str">
+        <f>VLOOKUP(A3,$M$3:$N$6,2,0)</f>
+        <v>協栄物産</v>
+      </c>
+      <c r="C3" s="23">
+        <v>11</v>
+      </c>
+      <c r="D3" s="23" t="str">
+        <f>VLOOKUP(C3,$M$8:$O$11,2,0)</f>
+        <v>P商品</v>
+      </c>
+      <c r="E3" s="5">
+        <f>ROUNDDOWN(VLOOKUP(C3,$M$8:$O$11,3,0)*1.3, -1)</f>
+        <v>3060</v>
+      </c>
+      <c r="F3" s="43">
+        <v>45478</v>
+      </c>
+      <c r="G3" s="23">
+        <f>ROUND(E3*0.9/VLOOKUP(F3,$M$13:$N$16,2,0),2)</f>
+        <v>19.82</v>
+      </c>
+      <c r="H3" s="23">
+        <v>362</v>
+      </c>
+      <c r="I3" s="6">
+        <f>VLOOKUP(H3,$M$18:$O$20,INT(C3/20)+2,1)</f>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J3" s="23">
+        <f>ROUNDDOWN(G3*H3*I3,2)</f>
+        <v>401.79</v>
+      </c>
+      <c r="K3" s="12">
+        <f>ROUNDDOWN(G3*H3*(1+I3),2)</f>
+        <v>7576.63</v>
+      </c>
+      <c r="M3">
+        <v>101</v>
+      </c>
+      <c r="N3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="25">
+        <v>101</v>
+      </c>
+      <c r="B4" s="23" t="str">
+        <f t="shared" ref="B4:B18" si="0">VLOOKUP(A4,$M$3:$N$6,2,0)</f>
+        <v>協栄物産</v>
+      </c>
+      <c r="C4" s="23">
+        <v>12</v>
+      </c>
+      <c r="D4" s="23" t="str">
+        <f t="shared" ref="D4:D18" si="1">VLOOKUP(C4,$M$8:$O$11,2,0)</f>
+        <v>Q商品</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E18" si="2">ROUNDDOWN(VLOOKUP(C4,$M$8:$O$11,3,0)*1.3, -1)</f>
+        <v>3210</v>
+      </c>
+      <c r="F4" s="43">
+        <v>45478</v>
+      </c>
+      <c r="G4" s="23">
+        <f t="shared" ref="G4:G18" si="3">ROUND(E4*0.9/VLOOKUP(F4,$M$13:$N$16,2,0),2)</f>
+        <v>20.79</v>
+      </c>
+      <c r="H4" s="23">
+        <v>608</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I18" si="4">VLOOKUP(H4,$M$18:$O$20,INT(C4/20)+2,1)</f>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J4" s="23">
+        <f t="shared" ref="J4:J18" si="5">ROUNDDOWN(G4*H4*I4,2)</f>
+        <v>745.77</v>
+      </c>
+      <c r="K4" s="12">
+        <f t="shared" ref="K4:K18" si="6">ROUNDDOWN(G4*H4*(1+I4),2)</f>
+        <v>13386.09</v>
+      </c>
+      <c r="M4">
+        <v>102</v>
+      </c>
+      <c r="N4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="25">
+        <v>101</v>
+      </c>
+      <c r="B5" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>協栄物産</v>
+      </c>
+      <c r="C5" s="23">
+        <v>21</v>
+      </c>
+      <c r="D5" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>R商品</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="2"/>
+        <v>2570</v>
+      </c>
+      <c r="F5" s="43">
+        <v>45478</v>
+      </c>
+      <c r="G5" s="23">
+        <f t="shared" si="3"/>
+        <v>16.649999999999999</v>
+      </c>
+      <c r="H5" s="23">
+        <v>440</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="4"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J5" s="23">
+        <f t="shared" si="5"/>
+        <v>329.67</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" si="6"/>
+        <v>7655.67</v>
+      </c>
+      <c r="M5">
+        <v>103</v>
+      </c>
+      <c r="N5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="25">
+        <v>101</v>
+      </c>
+      <c r="B6" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>協栄物産</v>
+      </c>
+      <c r="C6" s="23">
+        <v>22</v>
+      </c>
+      <c r="D6" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>S商品</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="2"/>
+        <v>2790</v>
+      </c>
+      <c r="F6" s="43">
+        <v>45478</v>
+      </c>
+      <c r="G6" s="23">
+        <f t="shared" si="3"/>
+        <v>18.07</v>
+      </c>
+      <c r="H6" s="23">
+        <v>550</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="4"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J6" s="23">
+        <f t="shared" si="5"/>
+        <v>477.04</v>
+      </c>
+      <c r="K6" s="12">
+        <f t="shared" si="6"/>
+        <v>10415.540000000001</v>
+      </c>
+      <c r="M6">
+        <v>104</v>
+      </c>
+      <c r="N6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="25">
+        <v>102</v>
+      </c>
+      <c r="B7" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>中川商事</v>
+      </c>
+      <c r="C7" s="23">
+        <v>11</v>
+      </c>
+      <c r="D7" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>P商品</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="2"/>
+        <v>3060</v>
+      </c>
+      <c r="F7" s="43">
+        <v>45485</v>
+      </c>
+      <c r="G7" s="23">
+        <f t="shared" si="3"/>
+        <v>20.07</v>
+      </c>
+      <c r="H7" s="23">
+        <v>692</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="4"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="J7" s="23">
+        <f t="shared" si="5"/>
+        <v>861.08</v>
+      </c>
+      <c r="K7" s="12">
+        <f t="shared" si="6"/>
+        <v>14749.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="25">
+        <v>102</v>
+      </c>
+      <c r="B8" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>中川商事</v>
+      </c>
+      <c r="C8" s="23">
+        <v>12</v>
+      </c>
+      <c r="D8" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Q商品</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="2"/>
+        <v>3210</v>
+      </c>
+      <c r="F8" s="43">
+        <v>45485</v>
+      </c>
+      <c r="G8" s="23">
+        <f t="shared" si="3"/>
+        <v>21.05</v>
+      </c>
+      <c r="H8" s="23">
+        <v>566</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="4"/>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J8" s="23">
+        <f t="shared" si="5"/>
+        <v>702.94</v>
+      </c>
+      <c r="K8" s="12">
+        <f t="shared" si="6"/>
+        <v>12617.24</v>
+      </c>
+      <c r="M8">
+        <v>11</v>
+      </c>
+      <c r="N8" t="s">
+        <v>150</v>
+      </c>
+      <c r="O8">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="25">
+        <v>102</v>
+      </c>
+      <c r="B9" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>中川商事</v>
+      </c>
+      <c r="C9" s="23">
+        <v>21</v>
+      </c>
+      <c r="D9" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>R商品</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="2"/>
+        <v>2570</v>
+      </c>
+      <c r="F9" s="43">
+        <v>45485</v>
+      </c>
+      <c r="G9" s="23">
+        <f t="shared" si="3"/>
+        <v>16.850000000000001</v>
+      </c>
+      <c r="H9" s="23">
+        <v>628</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="4"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J9" s="23">
+        <f t="shared" si="5"/>
+        <v>507.92</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" si="6"/>
+        <v>11089.72</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="N9" t="s">
+        <v>152</v>
+      </c>
+      <c r="O9">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="25">
+        <v>102</v>
+      </c>
+      <c r="B10" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>中川商事</v>
+      </c>
+      <c r="C10" s="23">
+        <v>22</v>
+      </c>
+      <c r="D10" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>S商品</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="2"/>
+        <v>2790</v>
+      </c>
+      <c r="F10" s="43">
+        <v>45485</v>
+      </c>
+      <c r="G10" s="23">
+        <f t="shared" si="3"/>
+        <v>18.3</v>
+      </c>
+      <c r="H10" s="23">
+        <v>407</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="4"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J10" s="23">
+        <f t="shared" si="5"/>
+        <v>335.16</v>
+      </c>
+      <c r="K10" s="12">
+        <f t="shared" si="6"/>
+        <v>7783.26</v>
+      </c>
+      <c r="M10">
+        <v>21</v>
+      </c>
+      <c r="N10" t="s">
+        <v>154</v>
+      </c>
+      <c r="O10">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="25">
+        <v>103</v>
+      </c>
+      <c r="B11" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>ＳＫ貿易</v>
+      </c>
+      <c r="C11" s="23">
+        <v>11</v>
+      </c>
+      <c r="D11" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>P商品</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="2"/>
+        <v>3060</v>
+      </c>
+      <c r="F11" s="43">
+        <v>45492</v>
+      </c>
+      <c r="G11" s="23">
+        <f t="shared" si="3"/>
+        <v>19.72</v>
+      </c>
+      <c r="H11" s="23">
+        <v>630</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="4"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="J11" s="23">
+        <f t="shared" si="5"/>
+        <v>770.26</v>
+      </c>
+      <c r="K11" s="12">
+        <f t="shared" si="6"/>
+        <v>13193.86</v>
+      </c>
+      <c r="M11">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
+        <v>156</v>
+      </c>
+      <c r="O11">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="25">
+        <v>103</v>
+      </c>
+      <c r="B12" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>ＳＫ貿易</v>
+      </c>
+      <c r="C12" s="23">
+        <v>12</v>
+      </c>
+      <c r="D12" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Q商品</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="2"/>
+        <v>3210</v>
+      </c>
+      <c r="F12" s="43">
+        <v>45492</v>
+      </c>
+      <c r="G12" s="23">
+        <f t="shared" si="3"/>
+        <v>20.68</v>
+      </c>
+      <c r="H12" s="23">
+        <v>498</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="4"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J12" s="23">
+        <f t="shared" si="5"/>
+        <v>576.72</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="6"/>
+        <v>10875.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="25">
+        <v>103</v>
+      </c>
+      <c r="B13" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>ＳＫ貿易</v>
+      </c>
+      <c r="C13" s="23">
+        <v>21</v>
+      </c>
+      <c r="D13" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>R商品</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="2"/>
+        <v>2570</v>
+      </c>
+      <c r="F13" s="43">
+        <v>45492</v>
+      </c>
+      <c r="G13" s="23">
+        <f t="shared" si="3"/>
+        <v>16.559999999999999</v>
+      </c>
+      <c r="H13" s="23">
+        <v>670</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="4"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="J13" s="23">
+        <f t="shared" si="5"/>
+        <v>565.85</v>
+      </c>
+      <c r="K13" s="12">
+        <f t="shared" si="6"/>
+        <v>11661.05</v>
+      </c>
+      <c r="M13" s="42">
+        <v>45478</v>
+      </c>
+      <c r="N13">
+        <v>138.94999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="25">
+        <v>103</v>
+      </c>
+      <c r="B14" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>ＳＫ貿易</v>
+      </c>
+      <c r="C14" s="23">
+        <v>22</v>
+      </c>
+      <c r="D14" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>S商品</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="2"/>
+        <v>2790</v>
+      </c>
+      <c r="F14" s="43">
+        <v>45492</v>
+      </c>
+      <c r="G14" s="23">
+        <f t="shared" si="3"/>
+        <v>17.98</v>
+      </c>
+      <c r="H14" s="23">
+        <v>530</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="4"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J14" s="23">
+        <f t="shared" si="5"/>
+        <v>457.41</v>
+      </c>
+      <c r="K14" s="12">
+        <f t="shared" si="6"/>
+        <v>9986.81</v>
+      </c>
+      <c r="M14" s="42">
+        <v>45485</v>
+      </c>
+      <c r="N14">
+        <v>137.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="25">
+        <v>104</v>
+      </c>
+      <c r="B15" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>東海総業</v>
+      </c>
+      <c r="C15" s="23">
+        <v>11</v>
+      </c>
+      <c r="D15" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>P商品</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="2"/>
+        <v>3060</v>
+      </c>
+      <c r="F15" s="43">
+        <v>45499</v>
+      </c>
+      <c r="G15" s="23">
+        <f t="shared" si="3"/>
+        <v>20.170000000000002</v>
+      </c>
+      <c r="H15" s="23">
+        <v>585</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="4"/>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J15" s="23">
+        <f t="shared" si="5"/>
+        <v>696.16</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" si="6"/>
+        <v>12495.61</v>
+      </c>
+      <c r="M15" s="42">
+        <v>45492</v>
+      </c>
+      <c r="N15">
+        <v>139.66999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="25">
+        <v>104</v>
+      </c>
+      <c r="B16" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>東海総業</v>
+      </c>
+      <c r="C16" s="23">
+        <v>12</v>
+      </c>
+      <c r="D16" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Q商品</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="2"/>
+        <v>3210</v>
+      </c>
+      <c r="F16" s="43">
+        <v>45499</v>
+      </c>
+      <c r="G16" s="23">
+        <f t="shared" si="3"/>
+        <v>21.16</v>
+      </c>
+      <c r="H16" s="23">
+        <v>650</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="4"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="J16" s="23">
+        <f t="shared" si="5"/>
+        <v>852.74</v>
+      </c>
+      <c r="K16" s="12">
+        <f t="shared" si="6"/>
+        <v>14606.74</v>
+      </c>
+      <c r="M16" s="42">
+        <v>45499</v>
+      </c>
+      <c r="N16">
+        <v>136.51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="25">
+        <v>104</v>
+      </c>
+      <c r="B17" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>東海総業</v>
+      </c>
+      <c r="C17" s="23">
+        <v>21</v>
+      </c>
+      <c r="D17" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>R商品</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="2"/>
+        <v>2570</v>
+      </c>
+      <c r="F17" s="43">
+        <v>45499</v>
+      </c>
+      <c r="G17" s="23">
+        <f t="shared" si="3"/>
+        <v>16.940000000000001</v>
+      </c>
+      <c r="H17" s="23">
+        <v>459</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="4"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J17" s="23">
+        <f t="shared" si="5"/>
+        <v>349.89</v>
+      </c>
+      <c r="K17" s="12">
+        <f t="shared" si="6"/>
+        <v>8125.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="25">
+        <v>104</v>
+      </c>
+      <c r="B18" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>東海総業</v>
+      </c>
+      <c r="C18" s="23">
+        <v>22</v>
+      </c>
+      <c r="D18" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>S商品</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="2"/>
+        <v>2790</v>
+      </c>
+      <c r="F18" s="43">
+        <v>45499</v>
+      </c>
+      <c r="G18" s="23">
+        <f t="shared" si="3"/>
+        <v>18.39</v>
+      </c>
+      <c r="H18" s="23">
+        <v>764</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="4"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="J18" s="23">
+        <f t="shared" si="5"/>
+        <v>716.54</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" si="6"/>
+        <v>14766.5</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="O18" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="25"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="12"/>
+      <c r="M19">
+        <v>530</v>
+      </c>
+      <c r="N19" s="2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="O19" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A20" s="26"/>
+      <c r="B20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="16">
+        <f>SUM(H3:H18)</f>
+        <v>9039</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="44">
+        <f t="shared" ref="I20:K20" si="7">SUM(J3:J18)</f>
+        <v>9346.9399999999987</v>
+      </c>
+      <c r="K20" s="45">
+        <f t="shared" si="7"/>
+        <v>180984.94999999998</v>
+      </c>
+      <c r="M20">
+        <v>630</v>
+      </c>
+      <c r="N20" s="2">
+        <v>6.2E-2</v>
+      </c>
+      <c r="O20" s="2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A22" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="25">
+        <v>103</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="23">
+        <v>22</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2790</v>
+      </c>
+      <c r="F24" s="43">
+        <v>45492</v>
+      </c>
+      <c r="G24" s="23">
+        <v>17.98</v>
+      </c>
+      <c r="H24" s="23">
+        <v>530</v>
+      </c>
+      <c r="I24" s="6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J24" s="23">
+        <v>457.41</v>
+      </c>
+      <c r="K24" s="12">
+        <v>9986.81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="25">
+        <v>101</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="23">
+        <v>22</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2790</v>
+      </c>
+      <c r="F25" s="43">
+        <v>45478</v>
+      </c>
+      <c r="G25" s="23">
+        <v>18.07</v>
+      </c>
+      <c r="H25" s="23">
+        <v>550</v>
+      </c>
+      <c r="I25" s="6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J25" s="23">
+        <v>477.04</v>
+      </c>
+      <c r="K25" s="12">
+        <v>10415.540000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="25">
+        <v>102</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="23">
+        <v>12</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3210</v>
+      </c>
+      <c r="F26" s="43">
+        <v>45485</v>
+      </c>
+      <c r="G26" s="23">
+        <v>21.05</v>
+      </c>
+      <c r="H26" s="23">
+        <v>566</v>
+      </c>
+      <c r="I26" s="6">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J26" s="23">
+        <v>702.94</v>
+      </c>
+      <c r="K26" s="12">
+        <v>12617.24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="25">
+        <v>104</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="23">
+        <v>11</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="5">
+        <v>3060</v>
+      </c>
+      <c r="F27" s="43">
+        <v>45499</v>
+      </c>
+      <c r="G27" s="23">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="H27" s="23">
+        <v>585</v>
+      </c>
+      <c r="I27" s="6">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J27" s="23">
+        <v>696.16</v>
+      </c>
+      <c r="K27" s="12">
+        <v>12495.61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="25">
+        <v>101</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="23">
+        <v>12</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="5">
+        <v>3210</v>
+      </c>
+      <c r="F28" s="43">
+        <v>45478</v>
+      </c>
+      <c r="G28" s="23">
+        <v>20.79</v>
+      </c>
+      <c r="H28" s="23">
+        <v>608</v>
+      </c>
+      <c r="I28" s="6">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J28" s="23">
+        <v>745.77</v>
+      </c>
+      <c r="K28" s="12">
+        <v>13386.09</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="25">
+        <v>102</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="23">
+        <v>21</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2570</v>
+      </c>
+      <c r="F29" s="43">
+        <v>45485</v>
+      </c>
+      <c r="G29" s="23">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="H29" s="23">
+        <v>628</v>
+      </c>
+      <c r="I29" s="6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J29" s="23">
+        <v>507.92</v>
+      </c>
+      <c r="K29" s="12">
+        <v>11089.72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="25"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A31" s="26"/>
+      <c r="B31" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="16">
+        <f>SUM(H24:H29)</f>
+        <v>3467</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="44">
+        <f t="shared" ref="I31:K31" si="8">SUM(J24:J29)</f>
+        <v>3587.2400000000002</v>
+      </c>
+      <c r="K31" s="44">
+        <f t="shared" si="8"/>
+        <v>69991.009999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="19.5" thickBot="1"/>
+    <row r="33" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A33" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="G33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A35" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="5">
+        <f>DSUM(ee,B$34,$G$33:$G$34)</f>
+        <v>1960</v>
+      </c>
+      <c r="C35" s="49">
+        <f>DSUM(ee,C$34,$G$33:$G$34)</f>
+        <v>1954.27</v>
+      </c>
+      <c r="D35" s="50">
+        <f>DSUM(ee,D$34,$G$33:$G$34)</f>
+        <v>39033.93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="5">
+        <f>DSUM(ee,B$34,$H$33:$H$34)</f>
+        <v>2293</v>
+      </c>
+      <c r="C36" s="49">
+        <f>DSUM(ee,C$34,$H$33:$H$34)</f>
+        <v>2407.1</v>
+      </c>
+      <c r="D36" s="50">
+        <f>DSUM(ee,D$34,$H$33:$H$34)</f>
+        <v>46239.740000000005</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="5">
+        <f>DSUM(ee,B$34,$I$33:$I$34)</f>
+        <v>2328</v>
+      </c>
+      <c r="C37" s="49">
+        <f>DSUM(ee,C$34,$I$33:$I$34)</f>
+        <v>2370.2399999999998</v>
+      </c>
+      <c r="D37" s="50">
+        <f>DSUM(ee,D$34,$I$33:$I$34)</f>
+        <v>45717.08</v>
+      </c>
+      <c r="G37" t="s">
+        <v>162</v>
+      </c>
+      <c r="I37" t="s">
+        <v>163</v>
+      </c>
+      <c r="J37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A38" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="16">
+        <f>DSUM(ee,B$34,$J$33:$J$34)</f>
+        <v>2458</v>
+      </c>
+      <c r="C38" s="44">
+        <f>DSUM(ee,C$34,$J$33:$J$34)</f>
+        <v>2615.33</v>
+      </c>
+      <c r="D38" s="45">
+        <f>DSUM(ee,D$34,$J$33:$J$34)</f>
+        <v>49994.2</v>
+      </c>
+      <c r="J38" s="48"/>
+    </row>
+    <row r="39" spans="1:10" ht="19.5" thickBot="1">
+      <c r="I39" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="46">
+        <f>DAVERAGE(ee,11,G36:G37)</f>
+        <v>11871.096666666666</v>
+      </c>
+      <c r="I40" t="s">
+        <v>144</v>
+      </c>
+      <c r="J40" s="48"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="12">
+        <f>DCOUNT(ee,,I36:J37)</f>
+        <v>5</v>
+      </c>
+      <c r="I41" t="s">
+        <v>148</v>
+      </c>
+      <c r="J41" s="48"/>
+    </row>
+    <row r="42" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A42" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="17">
+        <f>DMIN(ee,8,I39:I41)</f>
+        <v>407</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A24:K29">
+    <sortCondition ref="H23"/>
+  </sortState>
+  <mergeCells count="6">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A42:E42"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>